--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282897.2964641334</v>
+        <v>150131.9186046252</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>790873.975910199</v>
+        <v>787117.4728586838</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23357141.49934923</v>
+        <v>23186964.64223595</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5392424.514074024</v>
+        <v>5475853.83846153</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5.876997484242063</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="V11" t="n">
-        <v>6.672340468031409</v>
+        <v>27.94538734142304</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>31.72727899798257</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.876997484242063</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>27.94538734142304</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="X12" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.07718071010862</v>
       </c>
       <c r="F14" t="n">
-        <v>6.672340468031409</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1648,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>5.876997484242062</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>6.672340468031409</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="T15" t="n">
-        <v>5.876997484242063</v>
+        <v>39.54572969355102</v>
       </c>
       <c r="U15" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>54.25441286960329</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>61.59674485649785</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>61.59674485649785</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>61.59674485649785</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>68.80714126823213</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>54.25441286960329</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.59674485649785</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>61.59674485649785</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>61.59674485649785</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>68.80714126823213</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.6819173051268</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>68.80714126823209</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>44.15291272711816</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>68.80714126823209</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="W21" t="n">
-        <v>75.70608231735557</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="X21" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
     </row>
     <row r="22">
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="G23" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.18199010518797</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.62515116304431</v>
+        <v>67.62515116304434</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.181990105187841</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
     </row>
     <row r="24">
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>68.80714126823229</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2441,25 +2441,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.1602322897737</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>46.64690897845852</v>
       </c>
       <c r="U24" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="U26" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="V26" t="n">
-        <v>68.80714126823226</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="W26" t="n">
-        <v>78.11891606293401</v>
+        <v>68.80714126823212</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>58.02076676719412</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="S27" t="n">
-        <v>10.78637450103815</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>68.80714126823223</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.181990105187914</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="W29" t="n">
-        <v>78.11891606293401</v>
+        <v>68.80714126823212</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="T30" t="n">
-        <v>68.80714126823226</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="V30" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>78.11891606293401</v>
+        <v>68.80714126823223</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>68.80714126823223</v>
+        <v>68.80714126823212</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>68.80714126823229</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3152,25 +3152,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>22.1602322897737</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>46.64690897845852</v>
       </c>
       <c r="V33" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>61.82075743261788</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>67.62515116304434</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="W35" t="n">
-        <v>6.986383835614348</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.181990105187913</v>
       </c>
     </row>
     <row r="36">
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>46.64690897845859</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3389,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.1602322897737</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>68.80714126823226</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3511,58 +3511,58 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>78.11891606293403</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>78.11891606293403</v>
+      </c>
+      <c r="U38" t="n">
+        <v>78.11891606293403</v>
+      </c>
+      <c r="V38" t="n">
         <v>68.80714126823226</v>
-      </c>
-      <c r="F38" t="n">
-        <v>78.11891606293401</v>
-      </c>
-      <c r="G38" t="n">
-        <v>78.11891606293401</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>78.11891606293401</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3626,25 +3626,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.16023228977369</v>
+        <v>22.1602322897737</v>
       </c>
       <c r="R39" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>46.64690897845858</v>
       </c>
       <c r="W39" t="n">
-        <v>46.6469089784586</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.80714126823227</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>68.80714126823209</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="X41" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>58.02076676719412</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>22.1602322897737</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>46.64690897845852</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="X42" t="n">
-        <v>10.78637450103815</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293395</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.62515116304431</v>
+        <v>67.62515116304434</v>
       </c>
       <c r="R44" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.181990105187911</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.181990105187982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>68.80714126823226</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>68.80714126823227</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="U45" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.20988617913289</v>
+        <v>34.58593888345736</v>
       </c>
       <c r="C11" t="n">
-        <v>13.20988617913289</v>
+        <v>34.58593888345736</v>
       </c>
       <c r="D11" t="n">
-        <v>13.20988617913289</v>
+        <v>34.58593888345736</v>
       </c>
       <c r="E11" t="n">
-        <v>13.20988617913289</v>
+        <v>34.58593888345736</v>
       </c>
       <c r="F11" t="n">
-        <v>13.20988617913289</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="G11" t="n">
-        <v>13.20988617913289</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="H11" t="n">
-        <v>13.20988617913289</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="I11" t="n">
-        <v>6.470148332636516</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="J11" t="n">
-        <v>6.470148332636516</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="L11" t="n">
-        <v>6.872510682072349</v>
+        <v>32.67909736792203</v>
       </c>
       <c r="M11" t="n">
-        <v>13.47812774542344</v>
+        <v>64.08910357592477</v>
       </c>
       <c r="N11" t="n">
-        <v>20.08374480877454</v>
+        <v>95.49910978392752</v>
       </c>
       <c r="O11" t="n">
-        <v>26.68936187212564</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="P11" t="n">
-        <v>26.68936187212564</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.68936187212564</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="R11" t="n">
-        <v>26.68936187212564</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="S11" t="n">
-        <v>26.68936187212564</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="T11" t="n">
-        <v>26.68936187212564</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="U11" t="n">
-        <v>26.68936187212564</v>
+        <v>94.86135942831152</v>
       </c>
       <c r="V11" t="n">
-        <v>19.94962402562926</v>
+        <v>66.63369544707612</v>
       </c>
       <c r="W11" t="n">
-        <v>19.94962402562926</v>
+        <v>66.63369544707612</v>
       </c>
       <c r="X11" t="n">
-        <v>19.94962402562926</v>
+        <v>66.63369544707612</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.94962402562926</v>
+        <v>34.58593888345736</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.470148332636516</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="C12" t="n">
-        <v>6.470148332636516</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="D12" t="n">
-        <v>6.470148332636516</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="E12" t="n">
-        <v>6.470148332636516</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5337872374425128</v>
+        <v>33.94818852784135</v>
       </c>
       <c r="M12" t="n">
-        <v>6.872510682072349</v>
+        <v>64.08910357592478</v>
       </c>
       <c r="N12" t="n">
-        <v>13.47812774542344</v>
+        <v>95.49910978392752</v>
       </c>
       <c r="O12" t="n">
-        <v>20.08374480877454</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="P12" t="n">
-        <v>26.68936187212564</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.68936187212564</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="R12" t="n">
-        <v>26.68936187212564</v>
+        <v>126.9091159919303</v>
       </c>
       <c r="S12" t="n">
-        <v>26.68936187212564</v>
+        <v>98.68145201069487</v>
       </c>
       <c r="T12" t="n">
-        <v>26.68936187212564</v>
+        <v>66.63369544707612</v>
       </c>
       <c r="U12" t="n">
-        <v>26.68936187212564</v>
+        <v>66.63369544707612</v>
       </c>
       <c r="V12" t="n">
-        <v>26.68936187212564</v>
+        <v>34.58593888345736</v>
       </c>
       <c r="W12" t="n">
-        <v>26.68936187212564</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="X12" t="n">
-        <v>19.94962402562926</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.20988617913289</v>
+        <v>2.538182319838605</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.5337872374425128</v>
+        <v>2.538182319838605</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.01326293043526</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="C14" t="n">
-        <v>7.273525083938886</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="D14" t="n">
-        <v>7.273525083938886</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="E14" t="n">
-        <v>7.273525083938886</v>
+        <v>152.2393655182598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5337872374425128</v>
+        <v>106.8883420070911</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5337872374425128</v>
+        <v>61.53731849592236</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5337872374425128</v>
+        <v>16.18629498475364</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5337872374425128</v>
+        <v>16.18629498475364</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5337872374425128</v>
+        <v>16.18629498475364</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="L14" t="n">
-        <v>6.872510682072349</v>
+        <v>46.2444386743387</v>
       </c>
       <c r="M14" t="n">
-        <v>13.47812774542344</v>
+        <v>90.69297681763516</v>
       </c>
       <c r="N14" t="n">
-        <v>20.08374480877454</v>
+        <v>135.1415149609317</v>
       </c>
       <c r="O14" t="n">
-        <v>26.68936187212564</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="P14" t="n">
-        <v>20.75300077693164</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.75300077693164</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="R14" t="n">
-        <v>14.01326293043526</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="S14" t="n">
-        <v>14.01326293043526</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="T14" t="n">
-        <v>14.01326293043526</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="U14" t="n">
-        <v>14.01326293043526</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="V14" t="n">
-        <v>14.01326293043526</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="W14" t="n">
-        <v>14.01326293043526</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="X14" t="n">
-        <v>14.01326293043526</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.01326293043526</v>
+        <v>179.5900531042281</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="L15" t="n">
-        <v>7.139404300793609</v>
+        <v>29.6512936470747</v>
       </c>
       <c r="M15" t="n">
-        <v>13.47812774542344</v>
+        <v>74.09983179037116</v>
       </c>
       <c r="N15" t="n">
-        <v>20.08374480877454</v>
+        <v>118.5483699336676</v>
       </c>
       <c r="O15" t="n">
-        <v>20.08374480877454</v>
+        <v>135.1415149609317</v>
       </c>
       <c r="P15" t="n">
-        <v>26.68936187212564</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.68936187212564</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="R15" t="n">
-        <v>19.94962402562926</v>
+        <v>179.5900531042281</v>
       </c>
       <c r="S15" t="n">
-        <v>13.20988617913289</v>
+        <v>134.2390295930594</v>
       </c>
       <c r="T15" t="n">
-        <v>7.273525083938886</v>
+        <v>94.293848084422</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5337872374425128</v>
+        <v>94.293848084422</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5337872374425128</v>
+        <v>48.94282457325328</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5337872374425128</v>
+        <v>3.591801062084562</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>246.3869794259914</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="C17" t="n">
-        <v>246.3869794259914</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="D17" t="n">
-        <v>246.3869794259914</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="E17" t="n">
-        <v>246.3869794259914</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="F17" t="n">
-        <v>246.3869794259914</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="G17" t="n">
-        <v>191.5845421839679</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="H17" t="n">
-        <v>129.3656079854852</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="I17" t="n">
-        <v>67.14667378700251</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="J17" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="K17" t="n">
-        <v>4.927739588519828</v>
+        <v>6.92947346701601</v>
       </c>
       <c r="L17" t="n">
-        <v>55.88086844397861</v>
+        <v>65.73931599410599</v>
       </c>
       <c r="M17" t="n">
-        <v>116.8616458519115</v>
+        <v>143.0770428964105</v>
       </c>
       <c r="N17" t="n">
-        <v>177.8424232598443</v>
+        <v>220.414769798715</v>
       </c>
       <c r="O17" t="n">
-        <v>238.8232006677772</v>
+        <v>297.7524967010198</v>
       </c>
       <c r="P17" t="n">
-        <v>246.3869794259914</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="Q17" t="n">
-        <v>246.3869794259914</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="R17" t="n">
-        <v>246.3869794259914</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="S17" t="n">
-        <v>246.3869794259914</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="T17" t="n">
-        <v>246.3869794259914</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="U17" t="n">
-        <v>246.3869794259914</v>
+        <v>233.5676682285699</v>
       </c>
       <c r="V17" t="n">
-        <v>246.3869794259914</v>
+        <v>154.6596722054044</v>
       </c>
       <c r="W17" t="n">
-        <v>246.3869794259914</v>
+        <v>75.75167618223888</v>
       </c>
       <c r="X17" t="n">
-        <v>246.3869794259914</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="Y17" t="n">
-        <v>246.3869794259914</v>
+        <v>6.249513285034707</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="C18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="D18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="E18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="F18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="G18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="H18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="I18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="J18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="K18" t="n">
-        <v>4.927739588519828</v>
+        <v>34.97704472787872</v>
       </c>
       <c r="L18" t="n">
-        <v>63.4446472021928</v>
+        <v>91.97340120771672</v>
       </c>
       <c r="M18" t="n">
-        <v>124.4254246101257</v>
+        <v>137.6020406550231</v>
       </c>
       <c r="N18" t="n">
-        <v>185.4062020180585</v>
+        <v>205.510977605526</v>
       </c>
       <c r="O18" t="n">
-        <v>246.3869794259914</v>
+        <v>235.1379373494308</v>
       </c>
       <c r="P18" t="n">
-        <v>246.3869794259914</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="Q18" t="n">
-        <v>246.3869794259914</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="R18" t="n">
-        <v>191.5845421839679</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="S18" t="n">
-        <v>129.3656079854852</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="T18" t="n">
-        <v>67.14667378700251</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="U18" t="n">
-        <v>4.927739588519828</v>
+        <v>233.5676682285699</v>
       </c>
       <c r="V18" t="n">
-        <v>4.927739588519828</v>
+        <v>154.6596722054044</v>
       </c>
       <c r="W18" t="n">
-        <v>4.927739588519828</v>
+        <v>75.75167618223888</v>
       </c>
       <c r="X18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="C19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="D19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="E19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="F19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="G19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="H19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="I19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="J19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="K19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="L19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="M19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="N19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="O19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="P19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="R19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="S19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="T19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="U19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="V19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="W19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="X19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.927739588519828</v>
+        <v>6.249513285034707</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.9980670244906</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="C20" t="n">
-        <v>158.9980670244906</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="D20" t="n">
-        <v>158.9980670244906</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="E20" t="n">
-        <v>158.9980670244906</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="F20" t="n">
-        <v>158.9980670244906</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="G20" t="n">
-        <v>158.9980670244906</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="H20" t="n">
-        <v>82.52727680493952</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="I20" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="J20" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="K20" t="n">
-        <v>6.056486585388444</v>
+        <v>6.929473467016123</v>
       </c>
       <c r="L20" t="n">
-        <v>64.0227783805384</v>
+        <v>65.73931599410622</v>
       </c>
       <c r="M20" t="n">
-        <v>138.9717998747204</v>
+        <v>143.0770428964107</v>
       </c>
       <c r="N20" t="n">
-        <v>213.9208213689024</v>
+        <v>220.4147697987152</v>
       </c>
       <c r="O20" t="n">
-        <v>288.8698428630844</v>
+        <v>297.7524967010197</v>
       </c>
       <c r="P20" t="n">
-        <v>302.8243292694223</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="Q20" t="n">
-        <v>235.4688572440417</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="R20" t="n">
-        <v>235.4688572440417</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="S20" t="n">
-        <v>235.4688572440417</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="T20" t="n">
-        <v>235.4688572440417</v>
+        <v>242.9735013545312</v>
       </c>
       <c r="U20" t="n">
-        <v>235.4688572440417</v>
+        <v>164.0655053313657</v>
       </c>
       <c r="V20" t="n">
-        <v>235.4688572440417</v>
+        <v>85.1575093082002</v>
       </c>
       <c r="W20" t="n">
-        <v>235.4688572440417</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="X20" t="n">
-        <v>235.4688572440417</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="Y20" t="n">
-        <v>235.4688572440417</v>
+        <v>6.249513285034707</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.1261785495033</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="C21" t="n">
-        <v>50.65538832995225</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="D21" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="E21" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="F21" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="G21" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="H21" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="I21" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="J21" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="K21" t="n">
-        <v>34.32218053364124</v>
+        <v>34.97704472787875</v>
       </c>
       <c r="L21" t="n">
-        <v>48.5425881428903</v>
+        <v>112.3147716301832</v>
       </c>
       <c r="M21" t="n">
-        <v>93.44655279152933</v>
+        <v>167.2290003989278</v>
       </c>
       <c r="N21" t="n">
-        <v>160.6116349577814</v>
+        <v>235.1379373494308</v>
       </c>
       <c r="O21" t="n">
-        <v>227.8753077752403</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="P21" t="n">
-        <v>302.8243292694223</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="Q21" t="n">
-        <v>280.0677589886055</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="R21" t="n">
-        <v>280.0677589886055</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="S21" t="n">
-        <v>280.0677589886055</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="T21" t="n">
-        <v>280.0677589886055</v>
+        <v>312.4756642517353</v>
       </c>
       <c r="U21" t="n">
-        <v>280.0677589886055</v>
+        <v>242.9735013545312</v>
       </c>
       <c r="V21" t="n">
-        <v>280.0677589886055</v>
+        <v>164.0655053313657</v>
       </c>
       <c r="W21" t="n">
-        <v>203.5969687690544</v>
+        <v>85.1575093082002</v>
       </c>
       <c r="X21" t="n">
-        <v>127.1261785495033</v>
+        <v>85.1575093082002</v>
       </c>
       <c r="Y21" t="n">
-        <v>127.1261785495033</v>
+        <v>6.249513285034707</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="C22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="D22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="E22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="F22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="G22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="I22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="J22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="K22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="L22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="M22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="N22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="O22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="P22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="R22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="S22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="T22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="U22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="V22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="W22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="X22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.056486585388446</v>
+        <v>6.249513285034707</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="C23" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="D23" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="E23" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="F23" t="n">
-        <v>86.35143870738015</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G23" t="n">
-        <v>7.443442684214489</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H23" t="n">
-        <v>7.443442684214489</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I23" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J23" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K23" t="n">
-        <v>6.929473467016123</v>
+        <v>6.929473467016102</v>
       </c>
       <c r="L23" t="n">
-        <v>65.73931599410639</v>
+        <v>65.73931599410619</v>
       </c>
       <c r="M23" t="n">
-        <v>143.0770428964111</v>
+        <v>143.0770428964108</v>
       </c>
       <c r="N23" t="n">
-        <v>220.4147697987157</v>
+        <v>220.4147697987154</v>
       </c>
       <c r="O23" t="n">
-        <v>297.7524967010203</v>
+        <v>297.7524967010202</v>
       </c>
       <c r="P23" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="Q23" t="n">
-        <v>244.1674307537115</v>
+        <v>244.1674307537112</v>
       </c>
       <c r="R23" t="n">
-        <v>244.1674307537115</v>
+        <v>165.2594347305456</v>
       </c>
       <c r="S23" t="n">
-        <v>244.1674307537115</v>
+        <v>165.2594347305456</v>
       </c>
       <c r="T23" t="n">
-        <v>244.1674307537115</v>
+        <v>165.2594347305456</v>
       </c>
       <c r="U23" t="n">
-        <v>244.1674307537115</v>
+        <v>164.065505331366</v>
       </c>
       <c r="V23" t="n">
-        <v>244.1674307537115</v>
+        <v>164.065505331366</v>
       </c>
       <c r="W23" t="n">
-        <v>244.1674307537115</v>
+        <v>164.065505331366</v>
       </c>
       <c r="X23" t="n">
-        <v>165.2594347305458</v>
+        <v>164.065505331366</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820033</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.6596722054047</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C24" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D24" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E24" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F24" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G24" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H24" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I24" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J24" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K24" t="n">
-        <v>6.249513285034721</v>
+        <v>34.97704472787879</v>
       </c>
       <c r="L24" t="n">
-        <v>44.26263404931712</v>
+        <v>91.97340120771682</v>
       </c>
       <c r="M24" t="n">
-        <v>89.89127349662358</v>
+        <v>137.6020406550232</v>
       </c>
       <c r="N24" t="n">
-        <v>157.8002104471267</v>
+        <v>205.5109776055263</v>
       </c>
       <c r="O24" t="n">
-        <v>235.1379373494314</v>
+        <v>235.1379373494312</v>
       </c>
       <c r="P24" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="Q24" t="n">
-        <v>312.475664251736</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="R24" t="n">
-        <v>312.475664251736</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="S24" t="n">
-        <v>233.5676682285704</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="T24" t="n">
-        <v>233.5676682285704</v>
+        <v>242.9735013545315</v>
       </c>
       <c r="U24" t="n">
-        <v>154.6596722054047</v>
+        <v>164.065505331366</v>
       </c>
       <c r="V24" t="n">
-        <v>154.6596722054047</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="W24" t="n">
-        <v>154.6596722054047</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X24" t="n">
-        <v>154.6596722054047</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y24" t="n">
-        <v>154.6596722054047</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="M25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="N25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="O25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="P25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="R25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="S25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="T25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="U25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="V25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="W25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K26" t="n">
-        <v>6.929473467016135</v>
+        <v>6.929473467016119</v>
       </c>
       <c r="L26" t="n">
-        <v>65.73931599410629</v>
+        <v>65.73931599410622</v>
       </c>
       <c r="M26" t="n">
-        <v>143.0770428964109</v>
+        <v>143.0770428964108</v>
       </c>
       <c r="N26" t="n">
-        <v>220.4147697987156</v>
+        <v>220.4147697987154</v>
       </c>
       <c r="O26" t="n">
-        <v>297.7524967010203</v>
+        <v>297.75249670102</v>
       </c>
       <c r="P26" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="Q26" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="R26" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="S26" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="T26" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="U26" t="n">
-        <v>233.5676682285704</v>
+        <v>154.6596722054045</v>
       </c>
       <c r="V26" t="n">
-        <v>164.0655053313661</v>
+        <v>75.75167618223888</v>
       </c>
       <c r="W26" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X26" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C27" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D27" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E27" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F27" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G27" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H27" t="n">
-        <v>143.7643444265783</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I27" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J27" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K27" t="n">
-        <v>34.97704472787882</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L27" t="n">
-        <v>80.46248354482202</v>
+        <v>44.26263404931709</v>
       </c>
       <c r="M27" t="n">
-        <v>157.8002104471267</v>
+        <v>89.89127349662353</v>
       </c>
       <c r="N27" t="n">
-        <v>235.1379373494314</v>
+        <v>157.8002104471266</v>
       </c>
       <c r="O27" t="n">
-        <v>312.475664251736</v>
+        <v>235.1379373494312</v>
       </c>
       <c r="P27" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="Q27" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="R27" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="S27" t="n">
-        <v>301.5803364729096</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="T27" t="n">
-        <v>222.672340449744</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="U27" t="n">
-        <v>222.672340449744</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="V27" t="n">
-        <v>222.672340449744</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="W27" t="n">
-        <v>222.672340449744</v>
+        <v>75.751676182239</v>
       </c>
       <c r="X27" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y27" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="M28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="N28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="O28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="P28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="R28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="S28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="T28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="U28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="V28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="W28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.443442684214432</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C29" t="n">
-        <v>7.443442684214432</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D29" t="n">
-        <v>7.443442684214432</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E29" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F29" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G29" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H29" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I29" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J29" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K29" t="n">
-        <v>6.929473467016152</v>
+        <v>6.929473467016119</v>
       </c>
       <c r="L29" t="n">
-        <v>65.73931599410631</v>
+        <v>65.73931599410622</v>
       </c>
       <c r="M29" t="n">
-        <v>143.077042896411</v>
+        <v>143.0770428964108</v>
       </c>
       <c r="N29" t="n">
-        <v>220.4147697987156</v>
+        <v>220.4147697987154</v>
       </c>
       <c r="O29" t="n">
-        <v>297.7524967010203</v>
+        <v>297.75249670102</v>
       </c>
       <c r="P29" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="Q29" t="n">
-        <v>244.1674307537114</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="R29" t="n">
-        <v>244.1674307537114</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="S29" t="n">
-        <v>244.1674307537114</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="T29" t="n">
-        <v>165.2594347305458</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="U29" t="n">
-        <v>165.2594347305458</v>
+        <v>154.6596722054045</v>
       </c>
       <c r="V29" t="n">
-        <v>165.2594347305458</v>
+        <v>75.75167618223888</v>
       </c>
       <c r="W29" t="n">
-        <v>86.3514387073801</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X29" t="n">
-        <v>86.3514387073801</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y29" t="n">
-        <v>86.3514387073801</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K30" t="n">
-        <v>34.97704472787882</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L30" t="n">
-        <v>91.97340120771685</v>
+        <v>83.58724018733932</v>
       </c>
       <c r="M30" t="n">
-        <v>137.6020406550233</v>
+        <v>160.9249670896439</v>
       </c>
       <c r="N30" t="n">
-        <v>205.5109776055264</v>
+        <v>235.1379373494312</v>
       </c>
       <c r="O30" t="n">
-        <v>235.1379373494314</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="P30" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="Q30" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="R30" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="S30" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="T30" t="n">
-        <v>242.9735013545317</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="U30" t="n">
-        <v>164.0655053313661</v>
+        <v>75.751676182239</v>
       </c>
       <c r="V30" t="n">
-        <v>85.15750930820039</v>
+        <v>75.751676182239</v>
       </c>
       <c r="W30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="M31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="N31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="O31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="P31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="R31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="S31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="T31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="U31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="V31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="W31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>154.6596722054047</v>
+        <v>154.6596722054045</v>
       </c>
       <c r="C32" t="n">
-        <v>154.6596722054047</v>
+        <v>154.6596722054045</v>
       </c>
       <c r="D32" t="n">
-        <v>154.6596722054047</v>
+        <v>154.6596722054045</v>
       </c>
       <c r="E32" t="n">
-        <v>75.751676182239</v>
+        <v>154.6596722054045</v>
       </c>
       <c r="F32" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="G32" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H32" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I32" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J32" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K32" t="n">
-        <v>6.929473467016152</v>
+        <v>6.929473467016119</v>
       </c>
       <c r="L32" t="n">
-        <v>65.73931599410631</v>
+        <v>65.73931599410622</v>
       </c>
       <c r="M32" t="n">
-        <v>143.077042896411</v>
+        <v>143.0770428964108</v>
       </c>
       <c r="N32" t="n">
-        <v>220.4147697987156</v>
+        <v>220.4147697987154</v>
       </c>
       <c r="O32" t="n">
-        <v>297.7524967010203</v>
+        <v>297.75249670102</v>
       </c>
       <c r="P32" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="Q32" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="R32" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="S32" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="T32" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="U32" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="V32" t="n">
-        <v>233.5676682285703</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="W32" t="n">
-        <v>154.6596722054047</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="X32" t="n">
-        <v>154.6596722054047</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="Y32" t="n">
-        <v>154.6596722054047</v>
+        <v>233.5676682285701</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.75167618223905</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C33" t="n">
-        <v>75.75167618223905</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D33" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E33" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F33" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G33" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H33" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I33" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J33" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K33" t="n">
-        <v>34.97704472787882</v>
+        <v>34.97704472787879</v>
       </c>
       <c r="L33" t="n">
-        <v>91.97340120771685</v>
+        <v>112.3147716301834</v>
       </c>
       <c r="M33" t="n">
-        <v>137.6020406550233</v>
+        <v>157.9434110774898</v>
       </c>
       <c r="N33" t="n">
-        <v>205.5109776055264</v>
+        <v>235.2811379797944</v>
       </c>
       <c r="O33" t="n">
-        <v>235.1379373494314</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="P33" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="Q33" t="n">
-        <v>312.475664251736</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="R33" t="n">
-        <v>312.475664251736</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="S33" t="n">
-        <v>233.5676682285704</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="T33" t="n">
-        <v>154.6596722054047</v>
+        <v>211.1835952085968</v>
       </c>
       <c r="U33" t="n">
-        <v>154.6596722054047</v>
+        <v>164.065505331366</v>
       </c>
       <c r="V33" t="n">
-        <v>75.75167618223905</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="W33" t="n">
-        <v>75.75167618223905</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X33" t="n">
-        <v>75.75167618223905</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y33" t="n">
-        <v>75.75167618223905</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="M34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="N34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="O34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="P34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Q34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="R34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="S34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="T34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="U34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="V34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="W34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y34" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="C35" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="D35" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="E35" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="F35" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G35" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H35" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I35" t="n">
-        <v>68.69472281293157</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J35" t="n">
         <v>6.249513285034721</v>
       </c>
       <c r="K35" t="n">
-        <v>6.929473467016152</v>
+        <v>6.929473467016194</v>
       </c>
       <c r="L35" t="n">
-        <v>65.73931599410631</v>
+        <v>65.73931599410629</v>
       </c>
       <c r="M35" t="n">
-        <v>143.077042896411</v>
+        <v>143.0770428964111</v>
       </c>
       <c r="N35" t="n">
-        <v>220.4147697987156</v>
+        <v>220.4147697987158</v>
       </c>
       <c r="O35" t="n">
-        <v>297.7524967010203</v>
+        <v>297.7524967010204</v>
       </c>
       <c r="P35" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="Q35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537115</v>
       </c>
       <c r="R35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537115</v>
       </c>
       <c r="S35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537115</v>
       </c>
       <c r="T35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537115</v>
       </c>
       <c r="U35" t="n">
-        <v>233.5676682285703</v>
+        <v>244.1674307537115</v>
       </c>
       <c r="V35" t="n">
-        <v>154.6596722054047</v>
+        <v>165.2594347305458</v>
       </c>
       <c r="W35" t="n">
-        <v>147.6027188360972</v>
+        <v>86.35143870738011</v>
       </c>
       <c r="X35" t="n">
-        <v>147.6027188360972</v>
+        <v>7.443442684214432</v>
       </c>
       <c r="Y35" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>85.15750930820039</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="C36" t="n">
-        <v>85.15750930820039</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="D36" t="n">
-        <v>85.15750930820039</v>
+        <v>53.36760316226562</v>
       </c>
       <c r="E36" t="n">
-        <v>85.15750930820039</v>
+        <v>53.36760316226562</v>
       </c>
       <c r="F36" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G36" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H36" t="n">
         <v>6.249513285034721</v>
@@ -7019,49 +7019,49 @@
         <v>6.249513285034721</v>
       </c>
       <c r="K36" t="n">
-        <v>34.97704472787882</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="L36" t="n">
-        <v>49.81844984289267</v>
+        <v>83.5872401873394</v>
       </c>
       <c r="M36" t="n">
-        <v>95.44708929019913</v>
+        <v>157.8002104471267</v>
       </c>
       <c r="N36" t="n">
-        <v>163.3560262407022</v>
+        <v>235.1379373494314</v>
       </c>
       <c r="O36" t="n">
-        <v>240.6937531430069</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="P36" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="Q36" t="n">
-        <v>312.475664251736</v>
+        <v>290.0915912317627</v>
       </c>
       <c r="R36" t="n">
-        <v>312.475664251736</v>
+        <v>290.0915912317627</v>
       </c>
       <c r="S36" t="n">
-        <v>242.9735013545317</v>
+        <v>290.0915912317627</v>
       </c>
       <c r="T36" t="n">
-        <v>164.0655053313661</v>
+        <v>290.0915912317627</v>
       </c>
       <c r="U36" t="n">
-        <v>85.15750930820039</v>
+        <v>211.183595208597</v>
       </c>
       <c r="V36" t="n">
-        <v>85.15750930820039</v>
+        <v>211.183595208597</v>
       </c>
       <c r="W36" t="n">
-        <v>85.15750930820039</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="X36" t="n">
-        <v>85.15750930820039</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="Y36" t="n">
-        <v>85.15750930820039</v>
+        <v>132.2755991854313</v>
       </c>
     </row>
     <row r="37">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="C38" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="D38" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="E38" t="n">
-        <v>164.0655053313661</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="F38" t="n">
-        <v>85.15750930820039</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="G38" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H38" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I38" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J38" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K38" t="n">
-        <v>6.929473467016135</v>
+        <v>6.929473467016265</v>
       </c>
       <c r="L38" t="n">
-        <v>65.73931599410629</v>
+        <v>65.73931599410642</v>
       </c>
       <c r="M38" t="n">
-        <v>143.0770428964109</v>
+        <v>143.0770428964111</v>
       </c>
       <c r="N38" t="n">
-        <v>220.4147697987156</v>
+        <v>220.4147697987158</v>
       </c>
       <c r="O38" t="n">
-        <v>297.7524967010203</v>
+        <v>297.7524967010205</v>
       </c>
       <c r="P38" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="Q38" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="R38" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="S38" t="n">
-        <v>233.5676682285704</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="T38" t="n">
         <v>233.5676682285704</v>
       </c>
       <c r="U38" t="n">
-        <v>233.5676682285704</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="V38" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="W38" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="X38" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820042</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="C39" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="D39" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="E39" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="F39" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="G39" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H39" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I39" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J39" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K39" t="n">
-        <v>34.97704472787882</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="L39" t="n">
-        <v>60.26431375271864</v>
+        <v>83.58724018733942</v>
       </c>
       <c r="M39" t="n">
-        <v>137.6020406550233</v>
+        <v>160.9249670896441</v>
       </c>
       <c r="N39" t="n">
-        <v>205.5109776055264</v>
+        <v>235.1379373494314</v>
       </c>
       <c r="O39" t="n">
-        <v>235.1379373494314</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="P39" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="Q39" t="n">
-        <v>290.0915912317626</v>
+        <v>290.0915912317627</v>
       </c>
       <c r="R39" t="n">
+        <v>290.0915912317627</v>
+      </c>
+      <c r="S39" t="n">
+        <v>290.0915912317627</v>
+      </c>
+      <c r="T39" t="n">
+        <v>290.0915912317627</v>
+      </c>
+      <c r="U39" t="n">
         <v>211.183595208597</v>
       </c>
-      <c r="S39" t="n">
-        <v>132.2755991854313</v>
-      </c>
-      <c r="T39" t="n">
-        <v>53.36760316226564</v>
-      </c>
-      <c r="U39" t="n">
-        <v>53.36760316226564</v>
-      </c>
       <c r="V39" t="n">
-        <v>53.36760316226564</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="W39" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="X39" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="C40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="D40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="E40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="F40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="G40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="L40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="M40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="N40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="O40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="P40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="R40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="S40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="T40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="U40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="V40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="W40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="X40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>85.1575093082004</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="C41" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="D41" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="E41" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="F41" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="G41" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H41" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I41" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J41" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K41" t="n">
-        <v>6.929473467016137</v>
+        <v>6.929473467016119</v>
       </c>
       <c r="L41" t="n">
-        <v>65.73931599410629</v>
+        <v>65.73931599410622</v>
       </c>
       <c r="M41" t="n">
-        <v>143.077042896411</v>
+        <v>143.0770428964108</v>
       </c>
       <c r="N41" t="n">
-        <v>220.4147697987157</v>
+        <v>220.4147697987154</v>
       </c>
       <c r="O41" t="n">
-        <v>297.7524967010204</v>
+        <v>297.75249670102</v>
       </c>
       <c r="P41" t="n">
-        <v>312.4756642517361</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="Q41" t="n">
-        <v>312.4756642517361</v>
+        <v>312.4756642517357</v>
       </c>
       <c r="R41" t="n">
-        <v>312.4756642517361</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="S41" t="n">
-        <v>312.4756642517361</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="T41" t="n">
-        <v>312.4756642517361</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="U41" t="n">
-        <v>312.4756642517361</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="V41" t="n">
-        <v>312.4756642517361</v>
+        <v>164.065505331366</v>
       </c>
       <c r="W41" t="n">
-        <v>312.4756642517361</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="X41" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="Y41" t="n">
-        <v>154.6596722054047</v>
+        <v>85.15750930820033</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C42" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D42" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E42" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F42" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G42" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H42" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I42" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J42" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K42" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L42" t="n">
-        <v>21.09091840004857</v>
+        <v>83.58724018733932</v>
       </c>
       <c r="M42" t="n">
-        <v>98.42864530235325</v>
+        <v>129.2158796346457</v>
       </c>
       <c r="N42" t="n">
-        <v>166.3375822528564</v>
+        <v>197.1248165851488</v>
       </c>
       <c r="O42" t="n">
-        <v>235.1379373494314</v>
+        <v>235.1379373494312</v>
       </c>
       <c r="P42" t="n">
-        <v>312.4756642517361</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="Q42" t="n">
-        <v>312.4756642517361</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="R42" t="n">
-        <v>312.4756642517361</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="S42" t="n">
-        <v>312.4756642517361</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="T42" t="n">
-        <v>312.4756642517361</v>
+        <v>242.9735013545315</v>
       </c>
       <c r="U42" t="n">
-        <v>312.4756642517361</v>
+        <v>164.065505331366</v>
       </c>
       <c r="V42" t="n">
-        <v>312.4756642517361</v>
+        <v>164.065505331366</v>
       </c>
       <c r="W42" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="X42" t="n">
-        <v>222.672340449744</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="Y42" t="n">
-        <v>143.7643444265783</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="M43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="N43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="O43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="P43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="R43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="S43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="T43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="U43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="V43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="W43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>85.1575093082004</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="C44" t="n">
-        <v>85.1575093082004</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="D44" t="n">
-        <v>85.1575093082004</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="E44" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="F44" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="G44" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H44" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I44" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J44" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K44" t="n">
-        <v>6.929473467016137</v>
+        <v>6.929473467016194</v>
       </c>
       <c r="L44" t="n">
         <v>65.73931599410629</v>
       </c>
       <c r="M44" t="n">
-        <v>143.077042896411</v>
+        <v>143.0770428964111</v>
       </c>
       <c r="N44" t="n">
-        <v>220.4147697987157</v>
+        <v>220.4147697987158</v>
       </c>
       <c r="O44" t="n">
-        <v>297.7524967010204</v>
+        <v>297.7524967010205</v>
       </c>
       <c r="P44" t="n">
         <v>312.4756642517361</v>
@@ -7681,19 +7681,19 @@
         <v>165.2594347305458</v>
       </c>
       <c r="U44" t="n">
-        <v>165.2594347305458</v>
+        <v>86.35143870738013</v>
       </c>
       <c r="V44" t="n">
-        <v>165.2594347305458</v>
+        <v>86.35143870738013</v>
       </c>
       <c r="W44" t="n">
-        <v>165.2594347305458</v>
+        <v>86.35143870738013</v>
       </c>
       <c r="X44" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="Y44" t="n">
-        <v>164.0655053313661</v>
+        <v>85.15750930820042</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>75.75167618223904</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="C45" t="n">
-        <v>75.75167618223904</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="D45" t="n">
-        <v>75.75167618223904</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="E45" t="n">
-        <v>75.75167618223904</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="F45" t="n">
-        <v>75.75167618223904</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="G45" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H45" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I45" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J45" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K45" t="n">
-        <v>34.97704472787882</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="L45" t="n">
-        <v>49.81844984289267</v>
+        <v>21.09091840004854</v>
       </c>
       <c r="M45" t="n">
-        <v>95.44708929019913</v>
+        <v>98.42864530235323</v>
       </c>
       <c r="N45" t="n">
-        <v>163.3560262407022</v>
+        <v>175.7663722046579</v>
       </c>
       <c r="O45" t="n">
-        <v>235.1379373494314</v>
+        <v>253.1040991069626</v>
       </c>
       <c r="P45" t="n">
         <v>312.4756642517361</v>
@@ -7754,25 +7754,25 @@
         <v>312.4756642517361</v>
       </c>
       <c r="S45" t="n">
+        <v>312.4756642517361</v>
+      </c>
+      <c r="T45" t="n">
         <v>233.5676682285704</v>
       </c>
-      <c r="T45" t="n">
-        <v>154.6596722054047</v>
-      </c>
       <c r="U45" t="n">
-        <v>75.75167618223904</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="V45" t="n">
-        <v>75.75167618223904</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="W45" t="n">
-        <v>75.75167618223904</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="X45" t="n">
-        <v>75.75167618223904</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="Y45" t="n">
-        <v>75.75167618223904</v>
+        <v>233.5676682285704</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="C46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="D46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="E46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="F46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="G46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="L46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="M46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="N46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="O46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="P46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="R46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="S46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="T46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="U46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="V46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="W46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="X46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
     </row>
   </sheetData>
@@ -8698,13 +8698,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>73.59307986009873</v>
+        <v>71.89597359189543</v>
       </c>
       <c r="N11" t="n">
-        <v>67.86007410002918</v>
+        <v>65.73009177859001</v>
       </c>
       <c r="O11" t="n">
-        <v>84.15000000879212</v>
+        <v>83.53498865237339</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8771,22 +8771,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>68.76096162327045</v>
+        <v>55.59781453669564</v>
       </c>
       <c r="L12" t="n">
-        <v>24.02657182572204</v>
+        <v>38.0543751325596</v>
       </c>
       <c r="M12" t="n">
-        <v>5.845253578305744</v>
+        <v>9.233418058340835</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>19.50146615707592</v>
+        <v>25.16152623399111</v>
       </c>
       <c r="P12" t="n">
-        <v>45.52905636494157</v>
+        <v>23.29061605566034</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8935,13 +8935,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>73.59307986009873</v>
+        <v>71.00388251291281</v>
       </c>
       <c r="N14" t="n">
-        <v>67.86007410002918</v>
+        <v>64.61045757362166</v>
       </c>
       <c r="O14" t="n">
-        <v>84.15000000879212</v>
+        <v>83.21170533487373</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9008,22 +9008,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L15" t="n">
-        <v>30.69891229375345</v>
+        <v>23.34601175228815</v>
       </c>
       <c r="M15" t="n">
-        <v>5.845253578305744</v>
+        <v>12.82846197037216</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>12.8291256890445</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>45.52905636494157</v>
+        <v>60.00574319414665</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9172,13 +9172,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>78.37392637466138</v>
+        <v>86.06568567569718</v>
       </c>
       <c r="N17" t="n">
-        <v>71.82954542471629</v>
+        <v>79.37841942921131</v>
       </c>
       <c r="O17" t="n">
-        <v>90.95910601691952</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9245,22 +9245,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>44.08819239316259</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>49.95897627556235</v>
+        <v>42.58075895436794</v>
       </c>
       <c r="M18" t="n">
-        <v>22.32490686560823</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>38.07245466631099</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>9.679894680069111</v>
+        <v>82.66069609061185</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9409,13 +9409,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>84.60094559083461</v>
+        <v>86.06568567569707</v>
       </c>
       <c r="N20" t="n">
-        <v>77.92902049098058</v>
+        <v>79.37841942921125</v>
       </c>
       <c r="O20" t="n">
-        <v>97.50495755151906</v>
+        <v>99.00804712831365</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9485,19 +9485,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>63.12759776494011</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>9.379383152967861</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>38.70423724981377</v>
+        <v>48.19269409939355</v>
       </c>
       <c r="P21" t="n">
-        <v>80.7995256176136</v>
+        <v>4.541780027678016</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9646,10 +9646,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>86.06568567569724</v>
+        <v>86.06568567569718</v>
       </c>
       <c r="N23" t="n">
-        <v>79.37841942921136</v>
+        <v>79.37841942921131</v>
       </c>
       <c r="O23" t="n">
         <v>99.00804712831379</v>
@@ -9719,10 +9719,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>39.74325309514509</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>23.40577338309954</v>
+        <v>42.58075895436789</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>48.19269409939366</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>82.66069609061199</v>
+        <v>82.66069609061191</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,10 +9883,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>86.06568567569724</v>
+        <v>86.06568567569721</v>
       </c>
       <c r="N26" t="n">
-        <v>79.37841942921136</v>
+        <v>79.37841942921133</v>
       </c>
       <c r="O26" t="n">
         <v>99.00804712831379</v>
@@ -9956,22 +9956,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514512</v>
       </c>
       <c r="L27" t="n">
-        <v>30.95356939588824</v>
+        <v>23.40577338309955</v>
       </c>
       <c r="M27" t="n">
-        <v>32.02938126767495</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>9.524030254345007</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>48.19269409939366</v>
+        <v>48.19269409939363</v>
       </c>
       <c r="P27" t="n">
-        <v>4.541780027677959</v>
+        <v>82.66069609061191</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514512</v>
       </c>
       <c r="L30" t="n">
-        <v>42.58075895436786</v>
+        <v>63.12759776494019</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>32.02938126767492</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>6.367710413418394</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>48.19269409939363</v>
       </c>
       <c r="P30" t="n">
-        <v>82.66069609061199</v>
+        <v>4.541780027677987</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10433,19 +10433,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>42.58075895436786</v>
+        <v>63.12759776494019</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>9.524030254345007</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>48.04804699801662</v>
       </c>
       <c r="P33" t="n">
-        <v>82.66069609061199</v>
+        <v>4.541780027677987</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10594,10 +10594,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>86.06568567569721</v>
+        <v>86.0656856756973</v>
       </c>
       <c r="N35" t="n">
-        <v>79.37841942921133</v>
+        <v>79.37841942921142</v>
       </c>
       <c r="O35" t="n">
         <v>99.00804712831379</v>
@@ -10667,22 +10667,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514512</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>63.12759776494026</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>28.87306142674839</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>9.524030254345064</v>
       </c>
       <c r="O36" t="n">
-        <v>48.19269409939366</v>
+        <v>48.19269409939369</v>
       </c>
       <c r="P36" t="n">
-        <v>77.04876094558615</v>
+        <v>4.541780027677987</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10831,10 +10831,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>86.06568567569724</v>
+        <v>86.0656856756973</v>
       </c>
       <c r="N38" t="n">
-        <v>79.37841942921136</v>
+        <v>79.37841942921142</v>
       </c>
       <c r="O38" t="n">
         <v>99.00804712831379</v>
@@ -10904,22 +10904,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514512</v>
       </c>
       <c r="L39" t="n">
-        <v>10.5513776866929</v>
+        <v>63.12759776494028</v>
       </c>
       <c r="M39" t="n">
-        <v>32.02938126767495</v>
+        <v>32.02938126767501</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>6.367710413418479</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>48.19269409939375</v>
       </c>
       <c r="P39" t="n">
-        <v>82.66069609061199</v>
+        <v>4.541780027677987</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11068,10 +11068,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>86.06568567569724</v>
+        <v>86.06568567569721</v>
       </c>
       <c r="N41" t="n">
-        <v>79.37841942921136</v>
+        <v>79.37841942921133</v>
       </c>
       <c r="O41" t="n">
         <v>99.00804712831379</v>
@@ -11141,22 +11141,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>39.74325309514509</v>
+        <v>39.74325309514512</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>63.12759776494019</v>
       </c>
       <c r="M42" t="n">
-        <v>32.02938126767496</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>39.5690862148183</v>
+        <v>8.470869717553022</v>
       </c>
       <c r="P42" t="n">
-        <v>82.66069609061199</v>
+        <v>82.66069609061191</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11305,10 +11305,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>86.06568567569724</v>
+        <v>86.0656856756973</v>
       </c>
       <c r="N44" t="n">
-        <v>79.37841942921136</v>
+        <v>79.37841942921142</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11378,22 +11378,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514512</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>32.02938126767501</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>9.524030254345092</v>
       </c>
       <c r="O45" t="n">
-        <v>42.58075895436791</v>
+        <v>48.19269409939372</v>
       </c>
       <c r="P45" t="n">
-        <v>82.66069609061199</v>
+        <v>64.51305795169164</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.8839871290318</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C11" t="n">
         <v>333.5971194742085</v>
@@ -23269,22 +23269,22 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>399.146417573369</v>
+        <v>367.4191385753865</v>
       </c>
       <c r="G11" t="n">
-        <v>422.0527837651297</v>
+        <v>421.9004296768812</v>
       </c>
       <c r="H11" t="n">
-        <v>348.351143613845</v>
+        <v>346.7908473075706</v>
       </c>
       <c r="I11" t="n">
-        <v>241.6857394580121</v>
+        <v>242.4844489388454</v>
       </c>
       <c r="J11" t="n">
-        <v>90.32640317268871</v>
+        <v>77.39554037521239</v>
       </c>
       <c r="K11" t="n">
-        <v>36.15874768711398</v>
+        <v>22.65573381832311</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23299,25 +23299,25 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>33.42511341699608</v>
+        <v>11.51640508425962</v>
       </c>
       <c r="Q11" t="n">
-        <v>103.894186658861</v>
+        <v>87.44165911152194</v>
       </c>
       <c r="R11" t="n">
-        <v>201.6315021082798</v>
+        <v>192.0611896123435</v>
       </c>
       <c r="S11" t="n">
-        <v>232.3553859707037</v>
+        <v>228.8836171847423</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7842643573076</v>
+        <v>218.117334336</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7786105120094</v>
+        <v>217.039143186967</v>
       </c>
       <c r="V11" t="n">
-        <v>306.6321015329917</v>
+        <v>285.3590546596001</v>
       </c>
       <c r="W11" t="n">
         <v>325.3917254792934</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>346.2016973971996</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181.340416913003</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
         <v>203.8424276152394</v>
@@ -23348,19 +23348,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>168.1073506410819</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.9465941407873</v>
+        <v>160.8650775170608</v>
       </c>
       <c r="H12" t="n">
-        <v>137.0900243545098</v>
+        <v>136.3027453832563</v>
       </c>
       <c r="I12" t="n">
-        <v>114.5967526053281</v>
+        <v>111.7901495515863</v>
       </c>
       <c r="J12" t="n">
-        <v>74.99853408675705</v>
+        <v>67.29700078985864</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,31 +23381,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.09885816919245</v>
+        <v>34.69333265631325</v>
       </c>
       <c r="R12" t="n">
-        <v>150.1471739389298</v>
+        <v>145.0859926868573</v>
       </c>
       <c r="S12" t="n">
-        <v>206.7525125815782</v>
+        <v>177.2929897073403</v>
       </c>
       <c r="T12" t="n">
-        <v>229.8197069350609</v>
+        <v>197.7638587388123</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6450562996982</v>
+        <v>249.6396933639267</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>217.5726461821898</v>
       </c>
       <c r="W12" t="n">
-        <v>283.2492567629311</v>
+        <v>251.5219777649485</v>
       </c>
       <c r="X12" t="n">
-        <v>223.3607232429316</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>236.2239259455619</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="13">
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1770606099569</v>
+        <v>169.1087198109454</v>
       </c>
       <c r="H13" t="n">
-        <v>167.0679903102548</v>
+        <v>166.460378479044</v>
       </c>
       <c r="I13" t="n">
-        <v>166.0117393818365</v>
+        <v>163.956545171565</v>
       </c>
       <c r="J13" t="n">
-        <v>128.2277148308213</v>
+        <v>123.3960203407123</v>
       </c>
       <c r="K13" t="n">
-        <v>80.80468736287838</v>
+        <v>72.86472907773071</v>
       </c>
       <c r="L13" t="n">
-        <v>52.49450829616885</v>
+        <v>42.33409532314029</v>
       </c>
       <c r="M13" t="n">
-        <v>48.6619802108691</v>
+        <v>37.94924932582988</v>
       </c>
       <c r="N13" t="n">
-        <v>36.53351802412205</v>
+        <v>26.0755119353982</v>
       </c>
       <c r="O13" t="n">
-        <v>62.6241384884424</v>
+        <v>52.96447718817041</v>
       </c>
       <c r="P13" t="n">
-        <v>82.91647384697394</v>
+        <v>74.6509648465354</v>
       </c>
       <c r="Q13" t="n">
-        <v>146.8388097965749</v>
+        <v>141.1161997993531</v>
       </c>
       <c r="R13" t="n">
-        <v>218.4761025583039</v>
+        <v>215.403251722753</v>
       </c>
       <c r="S13" t="n">
-        <v>242.6930594153541</v>
+        <v>241.502065672582</v>
       </c>
       <c r="T13" t="n">
-        <v>217.8417222240036</v>
+        <v>217.5497206282274</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2164533983568</v>
+        <v>291.2127257184107</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23497,31 +23497,31 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C14" t="n">
-        <v>326.9247790061771</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E14" t="n">
-        <v>359.9585549362873</v>
+        <v>332.8813742261787</v>
       </c>
       <c r="F14" t="n">
-        <v>392.4740771053376</v>
+        <v>354.248904297312</v>
       </c>
       <c r="G14" t="n">
-        <v>422.0527837651297</v>
+        <v>376.9228308307456</v>
       </c>
       <c r="H14" t="n">
-        <v>348.351143613845</v>
+        <v>301.0731576869465</v>
       </c>
       <c r="I14" t="n">
-        <v>248.3580799260436</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J14" t="n">
-        <v>90.32640317268871</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K14" t="n">
-        <v>42.03574517135604</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23536,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>27.54811593275402</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>103.894186658861</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R14" t="n">
-        <v>194.9591616402484</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S14" t="n">
-        <v>232.3553859707037</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7842643573076</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7786105120094</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.9465941407873</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H15" t="n">
-        <v>137.0900243545098</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I15" t="n">
-        <v>114.5967526053281</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J15" t="n">
-        <v>74.99853408675705</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,25 +23618,25 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.09885816919245</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R15" t="n">
-        <v>143.4748334708983</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S15" t="n">
-        <v>200.0801721135468</v>
+        <v>159.5449520337056</v>
       </c>
       <c r="T15" t="n">
-        <v>223.9427094508189</v>
+        <v>189.7726942561974</v>
       </c>
       <c r="U15" t="n">
-        <v>242.9727158316668</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>204.4024119041154</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>238.3517434868741</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.1770606099569</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H16" t="n">
-        <v>167.0679903102548</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I16" t="n">
-        <v>166.0117393818365</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J16" t="n">
-        <v>128.2277148308213</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K16" t="n">
-        <v>80.80468736287838</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L16" t="n">
-        <v>52.49450829616885</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M16" t="n">
-        <v>48.6619802108691</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N16" t="n">
-        <v>36.53351802412205</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O16" t="n">
-        <v>62.6241384884424</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P16" t="n">
-        <v>82.91647384697394</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.8388097965749</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R16" t="n">
-        <v>218.4761025583039</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S16" t="n">
-        <v>242.6930594153541</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T16" t="n">
-        <v>217.8417222240036</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2164533983568</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,19 +23746,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>367.512801097066</v>
+        <v>421.7169243770377</v>
       </c>
       <c r="H17" t="n">
-        <v>283.8298070588648</v>
+        <v>344.9115236555481</v>
       </c>
       <c r="I17" t="n">
-        <v>175.7519054144024</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J17" t="n">
-        <v>4.492278634115337</v>
+        <v>61.82075743261794</v>
       </c>
       <c r="K17" t="n">
-        <v>5.710195920453174</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23776,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>73.05586108537412</v>
+        <v>67.62515116304442</v>
       </c>
       <c r="R17" t="n">
-        <v>183.6930782557438</v>
+        <v>180.5340748210477</v>
       </c>
       <c r="S17" t="n">
-        <v>225.847964188288</v>
+        <v>224.7019901645579</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5341825645473</v>
+        <v>217.314039885935</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7557649281325</v>
+        <v>170.6328256980282</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>235.1855259380893</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>247.2728094163595</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>280.0097380352807</v>
       </c>
       <c r="Y17" t="n">
         <v>377.9289763951821</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7938008283375</v>
+        <v>160.7668935257341</v>
       </c>
       <c r="H18" t="n">
-        <v>135.6143626263761</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I18" t="n">
-        <v>109.3361056635255</v>
+        <v>108.4096919554712</v>
       </c>
       <c r="J18" t="n">
-        <v>60.56291679078633</v>
+        <v>58.02076676719416</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,28 +23855,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.59492586419586</v>
+        <v>22.16023228977376</v>
       </c>
       <c r="R18" t="n">
-        <v>86.40617277529361</v>
+        <v>138.9899725937865</v>
       </c>
       <c r="S18" t="n">
-        <v>142.3176989609359</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T18" t="n">
-        <v>167.6070978060132</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U18" t="n">
-        <v>188.0382592515918</v>
+        <v>171.5143178278793</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>171.1810091172385</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999973</v>
       </c>
       <c r="X18" t="n">
-        <v>230.033063710963</v>
+        <v>161.2259224427308</v>
       </c>
       <c r="Y18" t="n">
         <v>242.8962664135933</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.048963829459</v>
+        <v>169.0264056508312</v>
       </c>
       <c r="H19" t="n">
-        <v>165.9290934800098</v>
+        <v>165.7285307645737</v>
       </c>
       <c r="I19" t="n">
-        <v>162.1595198374088</v>
+        <v>161.481133883766</v>
       </c>
       <c r="J19" t="n">
-        <v>119.1712724496199</v>
+        <v>117.5764092206357</v>
       </c>
       <c r="K19" t="n">
-        <v>65.92217050139533</v>
+        <v>63.30132029354934</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45001058469045</v>
+        <v>30.09622464579269</v>
       </c>
       <c r="M19" t="n">
-        <v>28.58222760973041</v>
+        <v>25.04613057264996</v>
       </c>
       <c r="N19" t="n">
-        <v>16.93121705938459</v>
+        <v>13.47920050628042</v>
       </c>
       <c r="O19" t="n">
-        <v>44.51824082315767</v>
+        <v>41.32974481129621</v>
       </c>
       <c r="P19" t="n">
-        <v>67.42375050384636</v>
+        <v>64.69544133599166</v>
       </c>
       <c r="Q19" t="n">
-        <v>136.1124512041555</v>
+        <v>134.2235113556055</v>
       </c>
       <c r="R19" t="n">
-        <v>212.7164055006439</v>
+        <v>211.7021077597983</v>
       </c>
       <c r="S19" t="n">
-        <v>240.4606818861317</v>
+        <v>240.0675543549548</v>
       </c>
       <c r="T19" t="n">
-        <v>217.2943996164216</v>
+        <v>217.1980146713757</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2094663012387</v>
+        <v>291.2082358551318</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.8502452797076</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
         <v>333.5971194742085</v>
@@ -23983,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7169243770377</v>
       </c>
       <c r="H20" t="n">
-        <v>269.2607383088719</v>
+        <v>344.9115236555481</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9119402934068</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J20" t="n">
-        <v>62.27902778684216</v>
+        <v>61.82075743261791</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.526312167933725</v>
+        <v>67.62515116304436</v>
       </c>
       <c r="R20" t="n">
-        <v>180.8732471227138</v>
+        <v>180.5340748210476</v>
       </c>
       <c r="S20" t="n">
-        <v>224.8250298051639</v>
+        <v>224.7019901645579</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3376759156334</v>
+        <v>148.5068986177029</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7521737158166</v>
+        <v>170.6328256980282</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>235.1855259380893</v>
       </c>
       <c r="W20" t="n">
-        <v>325.3917254792934</v>
+        <v>247.2728094163595</v>
       </c>
       <c r="X20" t="n">
         <v>348.8168793035129</v>
@@ -24050,10 +24050,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>128.1363452978838</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>127.9460296523941</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
         <v>187.4605452976028</v>
@@ -24062,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7668935257341</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I21" t="n">
-        <v>108.5091580928627</v>
+        <v>108.4096919554711</v>
       </c>
       <c r="J21" t="n">
-        <v>58.29370945070389</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,31 +24092,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.16023228977373</v>
       </c>
       <c r="R21" t="n">
-        <v>139.169341083075</v>
+        <v>138.9899725937864</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T21" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U21" t="n">
-        <v>249.633423953496</v>
+        <v>180.826092622581</v>
       </c>
       <c r="V21" t="n">
-        <v>249.2999251801724</v>
+        <v>171.1810091172385</v>
       </c>
       <c r="W21" t="n">
-        <v>207.5431744455755</v>
+        <v>205.1303406999973</v>
       </c>
       <c r="X21" t="n">
-        <v>154.3269813936074</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>242.8962664135933</v>
+        <v>164.7773503506595</v>
       </c>
     </row>
     <row r="22">
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.028827651796</v>
+        <v>169.0264056508312</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7285307645737</v>
       </c>
       <c r="I22" t="n">
-        <v>161.5539700582341</v>
+        <v>161.481133883766</v>
       </c>
       <c r="J22" t="n">
-        <v>117.7476446888457</v>
+        <v>117.5764092206357</v>
       </c>
       <c r="K22" t="n">
-        <v>63.58271276927573</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L22" t="n">
-        <v>30.45631013468387</v>
+        <v>30.09622464579266</v>
       </c>
       <c r="M22" t="n">
-        <v>25.42579023297469</v>
+        <v>25.04613057264993</v>
       </c>
       <c r="N22" t="n">
-        <v>13.84983270846368</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O22" t="n">
-        <v>41.67208363857273</v>
+        <v>41.32974481129618</v>
       </c>
       <c r="P22" t="n">
-        <v>64.98837134358664</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.42632090912</v>
+        <v>134.2235113556054</v>
       </c>
       <c r="R22" t="n">
-        <v>211.8110097304511</v>
+        <v>211.7021077597983</v>
       </c>
       <c r="S22" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0675543549548</v>
       </c>
       <c r="T22" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1980146713757</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2082358551318</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,13 +24220,13 @@
         <v>321.0275015104351</v>
       </c>
       <c r="G23" t="n">
-        <v>343.5980083141037</v>
+        <v>421.7169243770377</v>
       </c>
       <c r="H23" t="n">
         <v>344.911523655548</v>
       </c>
       <c r="I23" t="n">
-        <v>234.2278707614399</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J23" t="n">
         <v>61.82075743261788</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>180.5340748210476</v>
+        <v>102.4151587581137</v>
       </c>
       <c r="S23" t="n">
         <v>224.7019901645579</v>
@@ -24262,7 +24262,7 @@
         <v>217.314039885935</v>
       </c>
       <c r="U23" t="n">
-        <v>248.751741760962</v>
+        <v>247.5697516557742</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24271,10 +24271,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>270.6979632405789</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>299.8100603322482</v>
       </c>
     </row>
     <row r="24">
@@ -24287,10 +24287,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>135.0352863470071</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>93.9800263165782</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24308,7 +24308,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J24" t="n">
-        <v>58.02076676719412</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,25 +24329,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>138.9899725937864</v>
       </c>
       <c r="S24" t="n">
-        <v>125.2957364100908</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0953873507019</v>
+        <v>182.4484783722434</v>
       </c>
       <c r="U24" t="n">
-        <v>171.5143178278791</v>
+        <v>171.5143178278792</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>171.1810091172384</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999972</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24390,22 +24390,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K25" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L25" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579265</v>
       </c>
       <c r="M25" t="n">
-        <v>25.04613057264987</v>
+        <v>25.0461305726499</v>
       </c>
       <c r="N25" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O25" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129617</v>
       </c>
       <c r="P25" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q25" t="n">
         <v>134.2235113556054</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.4374115341292</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.62515116304431</v>
+        <v>67.62515116304434</v>
       </c>
       <c r="R26" t="n">
         <v>180.5340748210476</v>
@@ -24496,16 +24496,16 @@
         <v>224.7019901645579</v>
       </c>
       <c r="T26" t="n">
-        <v>217.314039885935</v>
+        <v>139.195123823001</v>
       </c>
       <c r="U26" t="n">
-        <v>170.632825698028</v>
+        <v>170.6328256980281</v>
       </c>
       <c r="V26" t="n">
-        <v>244.4973007327908</v>
+        <v>235.1855259380892</v>
       </c>
       <c r="W26" t="n">
-        <v>247.2728094163594</v>
+        <v>256.5845842110613</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
@@ -24539,13 +24539,13 @@
         <v>160.7668935257341</v>
       </c>
       <c r="H27" t="n">
-        <v>57.23557866724644</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I27" t="n">
-        <v>30.29077589253714</v>
+        <v>108.4096919554711</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,28 +24566,28 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.16023228977369</v>
+        <v>22.1602322897737</v>
       </c>
       <c r="R27" t="n">
-        <v>138.9899725937864</v>
+        <v>60.87105653085248</v>
       </c>
       <c r="S27" t="n">
-        <v>192.6282779719866</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T27" t="n">
-        <v>150.9764712877679</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U27" t="n">
         <v>249.6332338908131</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>171.1810091172384</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999972</v>
       </c>
       <c r="X27" t="n">
-        <v>230.033063710963</v>
+        <v>161.2259224427307</v>
       </c>
       <c r="Y27" t="n">
         <v>242.8962664135933</v>
@@ -24627,22 +24627,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K28" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L28" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579265</v>
       </c>
       <c r="M28" t="n">
-        <v>25.04613057264987</v>
+        <v>25.0461305726499</v>
       </c>
       <c r="N28" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O28" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129617</v>
       </c>
       <c r="P28" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q28" t="n">
         <v>134.2235113556054</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.4374115341292</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
         <v>333.5971194742085</v>
@@ -24688,7 +24688,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
-        <v>358.7765648310994</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
         <v>399.146417573369</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>67.62515116304434</v>
       </c>
       <c r="R29" t="n">
         <v>180.5340748210476</v>
@@ -24736,13 +24736,13 @@
         <v>139.195123823001</v>
       </c>
       <c r="U29" t="n">
-        <v>248.751741760962</v>
+        <v>170.6328256980281</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>235.1855259380892</v>
       </c>
       <c r="W29" t="n">
-        <v>247.2728094163594</v>
+        <v>256.5845842110613</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24782,7 +24782,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J30" t="n">
-        <v>58.02076676719412</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.16023228977369</v>
+        <v>22.1602322897737</v>
       </c>
       <c r="R30" t="n">
-        <v>138.9899725937864</v>
+        <v>60.87105653085248</v>
       </c>
       <c r="S30" t="n">
-        <v>203.4146524730248</v>
+        <v>125.2957364100909</v>
       </c>
       <c r="T30" t="n">
-        <v>160.2882460824696</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U30" t="n">
-        <v>171.5143178278791</v>
+        <v>171.5143178278792</v>
       </c>
       <c r="V30" t="n">
-        <v>171.1810091172384</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>205.1303406999971</v>
+        <v>214.4421154946989</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24864,22 +24864,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K31" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L31" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579265</v>
       </c>
       <c r="M31" t="n">
-        <v>25.04613057264987</v>
+        <v>25.0461305726499</v>
       </c>
       <c r="N31" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O31" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129617</v>
       </c>
       <c r="P31" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q31" t="n">
         <v>134.2235113556054</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>364.5563275970632</v>
+        <v>286.4374115341292</v>
       </c>
       <c r="C32" t="n">
         <v>333.5971194742085</v>
@@ -24925,13 +24925,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>281.8396388733534</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>330.3392763051368</v>
+        <v>330.3392763051369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7169243770377</v>
+        <v>343.5980083141037</v>
       </c>
       <c r="H32" t="n">
         <v>344.911523655548</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.62515116304431</v>
+        <v>67.62515116304434</v>
       </c>
       <c r="R32" t="n">
         <v>180.5340748210476</v>
@@ -24976,16 +24976,16 @@
         <v>248.751741760962</v>
       </c>
       <c r="V32" t="n">
-        <v>235.1855259380891</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>247.2728094163594</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>299.8100603322482</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
-        <v>103.2918011112799</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
         <v>187.4605452976028</v>
@@ -25019,7 +25019,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J33" t="n">
-        <v>58.02076676719412</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>138.9899725937864</v>
       </c>
       <c r="S33" t="n">
-        <v>125.2957364100908</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T33" t="n">
         <v>150.9764712877679</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6332338908131</v>
+        <v>202.9863249123546</v>
       </c>
       <c r="V33" t="n">
         <v>171.1810091172384</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999972</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25101,22 +25101,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K34" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L34" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579265</v>
       </c>
       <c r="M34" t="n">
-        <v>25.04613057264987</v>
+        <v>25.0461305726499</v>
       </c>
       <c r="N34" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O34" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129617</v>
       </c>
       <c r="P34" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q34" t="n">
         <v>134.2235113556054</v>
@@ -25174,10 +25174,10 @@
         <v>344.911523655548</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2909448036939</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>61.82075743261788</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>180.5340748210476</v>
@@ -25210,19 +25210,19 @@
         <v>217.314039885935</v>
       </c>
       <c r="U35" t="n">
-        <v>170.632825698028</v>
+        <v>248.751741760962</v>
       </c>
       <c r="V35" t="n">
         <v>235.1855259380891</v>
       </c>
       <c r="W35" t="n">
-        <v>318.405341643679</v>
+        <v>247.2728094163593</v>
       </c>
       <c r="X35" t="n">
-        <v>348.8168793035129</v>
+        <v>270.6979632405789</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.9289763951821</v>
+        <v>376.7469862899942</v>
       </c>
     </row>
     <row r="36">
@@ -25238,25 +25238,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>93.98002631657819</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>173.9843481253239</v>
+        <v>127.3374391468653</v>
       </c>
       <c r="G36" t="n">
         <v>160.7668935257341</v>
       </c>
       <c r="H36" t="n">
-        <v>57.23557866724644</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I36" t="n">
         <v>108.4096919554711</v>
       </c>
       <c r="J36" t="n">
-        <v>58.02076676719412</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,16 +25277,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>138.9899725937864</v>
       </c>
       <c r="S36" t="n">
-        <v>134.6075112047926</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T36" t="n">
-        <v>150.9764712877679</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U36" t="n">
         <v>171.5143178278791</v>
@@ -25295,7 +25295,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999971</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25338,22 +25338,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K37" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L37" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579265</v>
       </c>
       <c r="M37" t="n">
-        <v>25.04613057264987</v>
+        <v>25.0461305726499</v>
       </c>
       <c r="N37" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O37" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129617</v>
       </c>
       <c r="P37" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q37" t="n">
         <v>134.2235113556054</v>
@@ -25399,10 +25399,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>291.1514136680551</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>321.0275015104351</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
         <v>343.5980083141037</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.62515116304431</v>
+        <v>67.62515116304434</v>
       </c>
       <c r="R38" t="n">
         <v>180.5340748210476</v>
       </c>
       <c r="S38" t="n">
-        <v>146.5830741016239</v>
+        <v>224.7019901645579</v>
       </c>
       <c r="T38" t="n">
-        <v>217.314039885935</v>
+        <v>139.195123823001</v>
       </c>
       <c r="U38" t="n">
-        <v>248.751741760962</v>
+        <v>170.632825698028</v>
       </c>
       <c r="V38" t="n">
-        <v>313.3044420010231</v>
+        <v>244.4973007327908</v>
       </c>
       <c r="W38" t="n">
         <v>325.3917254792934</v>
@@ -25481,7 +25481,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>173.9843481253239</v>
+        <v>95.86543206238989</v>
       </c>
       <c r="G39" t="n">
         <v>160.7668935257341</v>
@@ -25493,7 +25493,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J39" t="n">
-        <v>58.02076676719412</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>60.87105653085243</v>
+        <v>138.9899725937864</v>
       </c>
       <c r="S39" t="n">
-        <v>125.2957364100908</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T39" t="n">
-        <v>150.9764712877679</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6332338908131</v>
+        <v>171.5143178278791</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>202.6530162017138</v>
       </c>
       <c r="W39" t="n">
-        <v>236.6023477844725</v>
+        <v>205.1303406999971</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25575,22 +25575,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K40" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L40" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579265</v>
       </c>
       <c r="M40" t="n">
-        <v>25.04613057264987</v>
+        <v>25.0461305726499</v>
       </c>
       <c r="N40" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O40" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129617</v>
       </c>
       <c r="P40" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q40" t="n">
         <v>134.2235113556054</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>295.7491863288309</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>255.4782034112744</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25642,7 +25642,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7169243770377</v>
+        <v>343.5980083141037</v>
       </c>
       <c r="H41" t="n">
         <v>344.911523655548</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.62515116304431</v>
+        <v>67.62515116304434</v>
       </c>
       <c r="R41" t="n">
-        <v>180.5340748210476</v>
+        <v>102.4151587581137</v>
       </c>
       <c r="S41" t="n">
         <v>224.7019901645579</v>
@@ -25687,16 +25687,16 @@
         <v>248.751741760962</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>244.497300732791</v>
       </c>
       <c r="W41" t="n">
-        <v>325.3917254792934</v>
+        <v>247.2728094163594</v>
       </c>
       <c r="X41" t="n">
-        <v>270.6979632405789</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>299.8100603322481</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.8938413181004</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
         <v>203.8424276152394</v>
@@ -25730,7 +25730,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>138.9899725937864</v>
@@ -25760,22 +25760,22 @@
         <v>203.4146524730248</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0953873507019</v>
+        <v>182.4484783722434</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6332338908131</v>
+        <v>171.5143178278792</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>205.1303406999971</v>
+        <v>205.1303406999972</v>
       </c>
       <c r="X42" t="n">
-        <v>219.2466892099248</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>164.7773503506593</v>
+        <v>164.7773503506594</v>
       </c>
     </row>
     <row r="43">
@@ -25812,22 +25812,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K43" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L43" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579265</v>
       </c>
       <c r="M43" t="n">
-        <v>25.04613057264987</v>
+        <v>25.0461305726499</v>
       </c>
       <c r="N43" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O43" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129617</v>
       </c>
       <c r="P43" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q43" t="n">
         <v>134.2235113556054</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>286.4374115341291</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25873,13 +25873,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
-        <v>281.8396388733533</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7169243770377</v>
+        <v>343.5980083141037</v>
       </c>
       <c r="H44" t="n">
         <v>344.911523655548</v>
@@ -25921,7 +25921,7 @@
         <v>217.314039885935</v>
       </c>
       <c r="U44" t="n">
-        <v>248.751741760962</v>
+        <v>170.632825698028</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25930,10 +25930,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X44" t="n">
-        <v>348.8168793035129</v>
+        <v>347.634889198325</v>
       </c>
       <c r="Y44" t="n">
-        <v>376.7469862899941</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="45">
@@ -25949,16 +25949,16 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>172.0989423795122</v>
+        <v>103.29180111128</v>
       </c>
       <c r="E45" t="n">
-        <v>187.4605452976028</v>
+        <v>109.3416292346688</v>
       </c>
       <c r="F45" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>91.95975225750186</v>
+        <v>82.6479774628001</v>
       </c>
       <c r="H45" t="n">
         <v>135.3544947301804</v>
@@ -25967,7 +25967,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J45" t="n">
-        <v>58.02076676719412</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.16023228977369</v>
+        <v>22.1602322897737</v>
       </c>
       <c r="R45" t="n">
         <v>138.9899725937864</v>
       </c>
       <c r="S45" t="n">
-        <v>125.2957364100908</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T45" t="n">
         <v>150.9764712877679</v>
       </c>
       <c r="U45" t="n">
-        <v>171.5143178278791</v>
+        <v>249.6332338908131</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26049,22 +26049,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K46" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L46" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579265</v>
       </c>
       <c r="M46" t="n">
-        <v>25.04613057264987</v>
+        <v>25.0461305726499</v>
       </c>
       <c r="N46" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O46" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129617</v>
       </c>
       <c r="P46" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q46" t="n">
         <v>134.2235113556054</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>430531.0968382856</v>
+        <v>462124.4903595784</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>430531.0968382855</v>
+        <v>478731.6911243069</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>494399.2802195928</v>
+        <v>509667.436464933</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507653.6419019979</v>
+        <v>509667.436464933</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>509667.4364649333</v>
+        <v>509667.436464933</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>509667.4364649332</v>
+        <v>509667.436464933</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>509667.4364649332</v>
+        <v>509667.4364649329</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>509667.4364649332</v>
+        <v>509667.436464933</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>509667.4364649332</v>
+        <v>509667.436464933</v>
       </c>
     </row>
     <row r="16">
@@ -26319,19 +26319,19 @@
         <v>87753.09082993203</v>
       </c>
       <c r="D2" t="n">
-        <v>87753.090829932</v>
+        <v>87753.09082993203</v>
       </c>
       <c r="E2" t="n">
-        <v>97429.24886604222</v>
+        <v>104644.7513651426</v>
       </c>
       <c r="F2" t="n">
-        <v>97429.24886604222</v>
+        <v>108437.6107343078</v>
       </c>
       <c r="G2" t="n">
-        <v>111981.330112158</v>
+        <v>115427.9545183935</v>
       </c>
       <c r="H2" t="n">
-        <v>114975.451867271</v>
+        <v>115427.9545183935</v>
       </c>
       <c r="I2" t="n">
         <v>115427.9545183935</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>60817.99383449103</v>
+        <v>98746.27799670151</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>19520.29510889561</v>
       </c>
       <c r="G3" t="n">
-        <v>70283.12334333213</v>
+        <v>29106.85267248975</v>
       </c>
       <c r="H3" t="n">
-        <v>12357.03662714045</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1652.647590262844</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1662.773933995299</v>
+        <v>7906.564835413255</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3225.745971025915</v>
       </c>
       <c r="O3" t="n">
-        <v>13217.61284048884</v>
+        <v>7994.763802064688</v>
       </c>
       <c r="P3" t="n">
-        <v>3335.080532972782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,34 +26426,34 @@
         <v>4054.116385767948</v>
       </c>
       <c r="E4" t="n">
-        <v>3346.148167057539</v>
+        <v>3320.493383371145</v>
       </c>
       <c r="F4" t="n">
-        <v>3346.148167057538</v>
+        <v>3307.007837952654</v>
       </c>
       <c r="G4" t="n">
-        <v>3448.850794767723</v>
+        <v>3616.856708927218</v>
       </c>
       <c r="H4" t="n">
-        <v>3585.363877727971</v>
+        <v>3616.856708927216</v>
       </c>
       <c r="I4" t="n">
-        <v>3616.856708927219</v>
+        <v>3616.856708927218</v>
       </c>
       <c r="J4" t="n">
         <v>3616.856708927218</v>
       </c>
       <c r="K4" t="n">
-        <v>3616.856708927219</v>
+        <v>3616.856708927218</v>
       </c>
       <c r="L4" t="n">
-        <v>3616.856708927219</v>
+        <v>3616.856708927218</v>
       </c>
       <c r="M4" t="n">
-        <v>3616.856708927218</v>
+        <v>3616.85670892722</v>
       </c>
       <c r="N4" t="n">
-        <v>3616.856708927219</v>
+        <v>3616.85670892722</v>
       </c>
       <c r="O4" t="n">
         <v>3616.856708927218</v>
@@ -26478,16 +26478,16 @@
         <v>40368.52827033812</v>
       </c>
       <c r="E5" t="n">
-        <v>8742.819179929016</v>
+        <v>11092.33757459929</v>
       </c>
       <c r="F5" t="n">
-        <v>8742.819179929016</v>
+        <v>12327.37184384974</v>
       </c>
       <c r="G5" t="n">
-        <v>13630.79659134873</v>
+        <v>14908.05247287481</v>
       </c>
       <c r="H5" t="n">
-        <v>14732.0723912985</v>
+        <v>14908.05247287481</v>
       </c>
       <c r="I5" t="n">
         <v>14908.05247287482</v>
@@ -26508,10 +26508,10 @@
         <v>14908.05247287482</v>
       </c>
       <c r="O5" t="n">
-        <v>14908.05247287483</v>
+        <v>14908.05247287482</v>
       </c>
       <c r="P5" t="n">
-        <v>14908.05247287483</v>
+        <v>14908.05247287482</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254634.9718704553</v>
+        <v>-271704.8704387366</v>
       </c>
       <c r="C6" t="n">
-        <v>43330.44617382596</v>
+        <v>26260.54760554456</v>
       </c>
       <c r="D6" t="n">
-        <v>43330.44617382593</v>
+        <v>26260.54760554456</v>
       </c>
       <c r="E6" t="n">
-        <v>24522.28768456465</v>
+        <v>-24284.89765510222</v>
       </c>
       <c r="F6" t="n">
-        <v>85340.28151905567</v>
+        <v>57804.15429104962</v>
       </c>
       <c r="G6" t="n">
-        <v>24618.55938270938</v>
+        <v>52855.1297641635</v>
       </c>
       <c r="H6" t="n">
-        <v>84300.97897110405</v>
+        <v>81961.98243665327</v>
       </c>
       <c r="I6" t="n">
-        <v>95250.39774632864</v>
+        <v>81961.98243665328</v>
       </c>
       <c r="J6" t="n">
-        <v>96903.04533659146</v>
+        <v>81961.98243665328</v>
       </c>
       <c r="K6" t="n">
-        <v>96903.04533659147</v>
+        <v>81961.98243665326</v>
       </c>
       <c r="L6" t="n">
-        <v>96903.04533659147</v>
+        <v>81961.98243665326</v>
       </c>
       <c r="M6" t="n">
-        <v>95240.27140259615</v>
+        <v>74055.41760124003</v>
       </c>
       <c r="N6" t="n">
-        <v>96903.04533659146</v>
+        <v>78736.23646562734</v>
       </c>
       <c r="O6" t="n">
-        <v>83685.43249610261</v>
+        <v>73967.21863458859</v>
       </c>
       <c r="P6" t="n">
-        <v>93567.96480361868</v>
+        <v>81961.98243665327</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>309.2168931347763</v>
       </c>
       <c r="E3" t="n">
-        <v>382.4376550216838</v>
+        <v>420.3357344734841</v>
       </c>
       <c r="F3" t="n">
-        <v>382.4376550216838</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="G3" t="n">
-        <v>453.4731423887</v>
+        <v>465.9826778095611</v>
       </c>
       <c r="H3" t="n">
-        <v>464.639568183637</v>
+        <v>465.9826778095612</v>
       </c>
       <c r="I3" t="n">
         <v>465.9826778095613</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.672340468031409</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="F4" t="n">
-        <v>6.672340468031409</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="G4" t="n">
-        <v>61.59674485649785</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="H4" t="n">
-        <v>75.70608231735557</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="I4" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="J4" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="K4" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="L4" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="M4" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="N4" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="O4" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P4" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293403</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>73.2207618869075</v>
+        <v>111.1188413387078</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>19.92128555704198</v>
       </c>
       <c r="G3" t="n">
-        <v>71.03548736701617</v>
+        <v>25.72565777903503</v>
       </c>
       <c r="H3" t="n">
-        <v>11.16642579493708</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.343109625924285</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.672340468031409</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13.17023427807446</v>
       </c>
       <c r="G4" t="n">
-        <v>54.92440438846644</v>
+        <v>33.22140278687682</v>
       </c>
       <c r="H4" t="n">
-        <v>14.10933746085772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.412833745578439</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.672340468031408</v>
+        <v>31.72727899798259</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.17023427807435</v>
       </c>
       <c r="O4" t="n">
-        <v>54.92440438846646</v>
+        <v>33.22140278687679</v>
       </c>
       <c r="P4" t="n">
-        <v>14.10933746085772</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.672340468031409</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.17023427807446</v>
       </c>
       <c r="O4" t="n">
-        <v>54.92440438846644</v>
+        <v>33.22140278687682</v>
       </c>
       <c r="P4" t="n">
-        <v>14.10933746085772</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.537437809132396</v>
+        <v>1.689791897380839</v>
       </c>
       <c r="H11" t="n">
-        <v>15.74528496277715</v>
+        <v>17.30558126905153</v>
       </c>
       <c r="I11" t="n">
-        <v>59.27207113657676</v>
+        <v>65.14570212377487</v>
       </c>
       <c r="J11" t="n">
-        <v>130.4881122528508</v>
+        <v>143.4189750503271</v>
       </c>
       <c r="K11" t="n">
-        <v>195.5678547134252</v>
+        <v>214.9478660664581</v>
       </c>
       <c r="L11" t="n">
-        <v>242.6192170646608</v>
+        <v>266.661834845927</v>
       </c>
       <c r="M11" t="n">
-        <v>269.960626702819</v>
+        <v>296.7126715009735</v>
       </c>
       <c r="N11" t="n">
-        <v>274.3288718780165</v>
+        <v>301.5137927294068</v>
       </c>
       <c r="O11" t="n">
-        <v>259.0409746634562</v>
+        <v>284.7109245498261</v>
       </c>
       <c r="P11" t="n">
-        <v>221.0854787505001</v>
+        <v>242.9941870832366</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.0259872109461</v>
+        <v>182.4785147582852</v>
       </c>
       <c r="R11" t="n">
-        <v>96.57607777791296</v>
+        <v>106.1463902738492</v>
       </c>
       <c r="S11" t="n">
-        <v>35.03436407560451</v>
+        <v>38.50613286156592</v>
       </c>
       <c r="T11" t="n">
-        <v>6.730134009477067</v>
+        <v>7.397064030784628</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1229950247305917</v>
+        <v>0.1351833517904671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8226017485372067</v>
+        <v>0.9041183722637205</v>
       </c>
       <c r="H12" t="n">
-        <v>7.944601097714602</v>
+        <v>8.731880068968039</v>
       </c>
       <c r="I12" t="n">
-        <v>28.32203388603979</v>
+        <v>31.12863693978161</v>
       </c>
       <c r="J12" t="n">
-        <v>77.71782572473671</v>
+        <v>85.41935902163512</v>
       </c>
       <c r="K12" t="n">
-        <v>132.8321428767296</v>
+        <v>145.9952899633044</v>
       </c>
       <c r="L12" t="n">
-        <v>178.609208602344</v>
+        <v>196.308684293489</v>
       </c>
       <c r="M12" t="n">
-        <v>208.4285219868176</v>
+        <v>229.0829752880488</v>
       </c>
       <c r="N12" t="n">
-        <v>198.7595943899064</v>
+        <v>223.8145329198575</v>
       </c>
       <c r="O12" t="n">
-        <v>195.7178818109555</v>
+        <v>215.1127602639914</v>
       </c>
       <c r="P12" t="n">
-        <v>157.0808549465478</v>
+        <v>172.6469547877977</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.0043916202933</v>
+        <v>115.4099171331725</v>
       </c>
       <c r="R12" t="n">
-        <v>51.07346645742413</v>
+        <v>56.13464770949663</v>
       </c>
       <c r="S12" t="n">
-        <v>15.27946668883802</v>
+        <v>16.79360222165287</v>
       </c>
       <c r="T12" t="n">
-        <v>3.31566231098988</v>
+        <v>3.64423150925596</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05411853608797414</v>
+        <v>0.05948147185945532</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6896416729899215</v>
+        <v>0.7579824720013646</v>
       </c>
       <c r="H13" t="n">
-        <v>6.131541419855852</v>
+        <v>6.739153251066683</v>
       </c>
       <c r="I13" t="n">
-        <v>20.73940594773328</v>
+        <v>22.79460015800468</v>
       </c>
       <c r="J13" t="n">
-        <v>48.75766628038745</v>
+        <v>53.58936077049648</v>
       </c>
       <c r="K13" t="n">
-        <v>80.12382346191995</v>
+        <v>88.06378174706762</v>
       </c>
       <c r="L13" t="n">
-        <v>102.530908364338</v>
+        <v>112.6913213373665</v>
       </c>
       <c r="M13" t="n">
-        <v>108.1044669760474</v>
+        <v>118.8171978610866</v>
       </c>
       <c r="N13" t="n">
-        <v>105.5339843767214</v>
+        <v>115.9919904654453</v>
       </c>
       <c r="O13" t="n">
-        <v>97.47771574224821</v>
+        <v>107.1373770425202</v>
       </c>
       <c r="P13" t="n">
-        <v>83.40902561325375</v>
+        <v>91.67453461369229</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.74808590827425</v>
+        <v>63.47069590549609</v>
       </c>
       <c r="R13" t="n">
-        <v>31.00879740552864</v>
+        <v>34.08164824107953</v>
       </c>
       <c r="S13" t="n">
-        <v>12.01857351928799</v>
+        <v>13.20956726206014</v>
       </c>
       <c r="T13" t="n">
-        <v>2.9466507845933</v>
+        <v>3.238652380369466</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03761681852672304</v>
+        <v>0.04134449847280176</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.537437809132396</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H14" t="n">
-        <v>15.74528496277715</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I14" t="n">
-        <v>59.27207113657676</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J14" t="n">
-        <v>130.4881122528508</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K14" t="n">
-        <v>195.5678547134252</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L14" t="n">
-        <v>242.6192170646608</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M14" t="n">
-        <v>269.960626702819</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N14" t="n">
-        <v>274.3288718780165</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O14" t="n">
-        <v>259.0409746634562</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P14" t="n">
-        <v>221.0854787505001</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.0259872109461</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R14" t="n">
-        <v>96.57607777791296</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S14" t="n">
-        <v>35.03436407560451</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T14" t="n">
-        <v>6.730134009477067</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1229950247305917</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8226017485372067</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H15" t="n">
-        <v>7.944601097714602</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I15" t="n">
-        <v>28.32203388603979</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J15" t="n">
-        <v>77.71782572473671</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K15" t="n">
-        <v>132.8321428767296</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L15" t="n">
-        <v>178.609208602344</v>
+        <v>205.6124884585962</v>
       </c>
       <c r="M15" t="n">
-        <v>208.4285219868176</v>
+        <v>239.9400759166367</v>
       </c>
       <c r="N15" t="n">
-        <v>198.7595943899064</v>
+        <v>236.984767197932</v>
       </c>
       <c r="O15" t="n">
-        <v>195.7178818109555</v>
+        <v>225.307760052792</v>
       </c>
       <c r="P15" t="n">
-        <v>157.0808549465478</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.0043916202933</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R15" t="n">
-        <v>51.07346645742413</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S15" t="n">
-        <v>15.27946668883802</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T15" t="n">
-        <v>3.31566231098988</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05411853608797414</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6896416729899215</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H16" t="n">
-        <v>6.131541419855852</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I16" t="n">
-        <v>20.73940594773328</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J16" t="n">
-        <v>48.75766628038745</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K16" t="n">
-        <v>80.12382346191995</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L16" t="n">
-        <v>102.530908364338</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M16" t="n">
-        <v>108.1044669760474</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N16" t="n">
-        <v>105.5339843767214</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O16" t="n">
-        <v>97.47771574224821</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P16" t="n">
-        <v>83.40902561325375</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.74808590827425</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R16" t="n">
-        <v>31.00879740552864</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S16" t="n">
-        <v>12.01857351928799</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T16" t="n">
-        <v>2.9466507845933</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03761681852672304</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.823007607592762</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H17" t="n">
-        <v>18.66987666125938</v>
+        <v>19.18490492107403</v>
       </c>
       <c r="I17" t="n">
-        <v>70.28150079172003</v>
+        <v>72.22029019599239</v>
       </c>
       <c r="J17" t="n">
-        <v>154.7254919349263</v>
+        <v>158.9937579929216</v>
       </c>
       <c r="K17" t="n">
-        <v>231.893403964328</v>
+        <v>238.290428351429</v>
       </c>
       <c r="L17" t="n">
-        <v>287.6842730351951</v>
+        <v>295.6203474509842</v>
       </c>
       <c r="M17" t="n">
-        <v>320.1041845767228</v>
+        <v>328.934596482123</v>
       </c>
       <c r="N17" t="n">
-        <v>325.2838049417958</v>
+        <v>334.2571021437367</v>
       </c>
       <c r="O17" t="n">
-        <v>307.1562730437952</v>
+        <v>315.6295031388369</v>
       </c>
       <c r="P17" t="n">
-        <v>262.1507727313489</v>
+        <v>269.3824785823604</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.8643127844331</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R17" t="n">
-        <v>114.5145016304489</v>
+        <v>117.6735050651451</v>
       </c>
       <c r="S17" t="n">
-        <v>41.54178585802011</v>
+        <v>42.68775988175025</v>
       </c>
       <c r="T17" t="n">
-        <v>7.980215802237321</v>
+        <v>8.200358480849662</v>
       </c>
       <c r="U17" t="n">
-        <v>0.145840608607421</v>
+        <v>0.1498637757779492</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.975395060987015</v>
+        <v>1.002302363590377</v>
       </c>
       <c r="H18" t="n">
-        <v>9.420262825848278</v>
+        <v>9.680130722043904</v>
       </c>
       <c r="I18" t="n">
-        <v>33.58268082784241</v>
+        <v>34.50909453589675</v>
       </c>
       <c r="J18" t="n">
-        <v>92.15344302070743</v>
+        <v>94.6955930442996</v>
       </c>
       <c r="K18" t="n">
-        <v>157.5049121068374</v>
+        <v>161.8498514048548</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7847916410622</v>
+        <v>217.6270987260597</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1428626018414</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N18" t="n">
-        <v>253.6839987783728</v>
+        <v>260.6821397304638</v>
       </c>
       <c r="O18" t="n">
-        <v>232.0712976901868</v>
+        <v>238.4732294635402</v>
       </c>
       <c r="P18" t="n">
-        <v>186.2576761633889</v>
+        <v>191.3957908157799</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.5083239252899</v>
+        <v>127.943017499712</v>
       </c>
       <c r="R18" t="n">
-        <v>60.56005475145697</v>
+        <v>62.23066780256745</v>
       </c>
       <c r="S18" t="n">
-        <v>18.11753545298248</v>
+        <v>18.61732679739141</v>
       </c>
       <c r="T18" t="n">
-        <v>3.931526583539765</v>
+        <v>4.039981895348929</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06417072769651418</v>
+        <v>0.06594094497305113</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8177384534878195</v>
+        <v>0.8402966321156019</v>
       </c>
       <c r="H19" t="n">
-        <v>7.270438250100801</v>
+        <v>7.471000965536902</v>
       </c>
       <c r="I19" t="n">
-        <v>24.59162549216098</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J19" t="n">
-        <v>57.81410866158883</v>
+        <v>59.40897189057305</v>
       </c>
       <c r="K19" t="n">
-        <v>95.00634032340301</v>
+        <v>97.627190531249</v>
       </c>
       <c r="L19" t="n">
-        <v>121.5754060758164</v>
+        <v>124.9291920147141</v>
       </c>
       <c r="M19" t="n">
-        <v>128.1842195771861</v>
+        <v>131.7203166142666</v>
       </c>
       <c r="N19" t="n">
-        <v>125.1362853414589</v>
+        <v>128.588301894563</v>
       </c>
       <c r="O19" t="n">
-        <v>115.5836134075329</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P19" t="n">
-        <v>98.90174895638133</v>
+        <v>101.630058124236</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.47444450069369</v>
+        <v>70.36338434924372</v>
       </c>
       <c r="R19" t="n">
-        <v>36.76849446318867</v>
+        <v>37.78279220403424</v>
       </c>
       <c r="S19" t="n">
-        <v>14.25095104851045</v>
+        <v>14.64407857968735</v>
       </c>
       <c r="T19" t="n">
-        <v>3.493973392175228</v>
+        <v>3.590358337221207</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04460391564479021</v>
+        <v>0.04583436175176016</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.867897761542258</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H20" t="n">
-        <v>19.12960795039465</v>
+        <v>19.18490492107404</v>
       </c>
       <c r="I20" t="n">
-        <v>72.01212845185798</v>
+        <v>72.2202901959924</v>
       </c>
       <c r="J20" t="n">
-        <v>158.5354876386974</v>
+        <v>158.9937579929216</v>
       </c>
       <c r="K20" t="n">
-        <v>237.6035998847812</v>
+        <v>238.290428351429</v>
       </c>
       <c r="L20" t="n">
-        <v>294.7682760045801</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M20" t="n">
-        <v>327.9865028214073</v>
+        <v>328.9345964821231</v>
       </c>
       <c r="N20" t="n">
-        <v>333.2936673363892</v>
+        <v>334.2571021437368</v>
       </c>
       <c r="O20" t="n">
-        <v>314.7197589700534</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P20" t="n">
-        <v>268.6060329819788</v>
+        <v>269.3824785823605</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.7119443967466</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R20" t="n">
-        <v>117.334332763479</v>
+        <v>117.6735050651451</v>
       </c>
       <c r="S20" t="n">
-        <v>42.56472024114425</v>
+        <v>42.68775988175027</v>
       </c>
       <c r="T20" t="n">
-        <v>8.176722451151239</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1498637757779492</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9994134108100873</v>
+        <v>1.002302363590377</v>
       </c>
       <c r="H21" t="n">
-        <v>9.65222952019216</v>
+        <v>9.680130722043906</v>
       </c>
       <c r="I21" t="n">
-        <v>34.4096283985052</v>
+        <v>34.50909453589676</v>
       </c>
       <c r="J21" t="n">
-        <v>94.42265036078987</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K21" t="n">
-        <v>161.3833488850657</v>
+        <v>161.8498514048549</v>
       </c>
       <c r="L21" t="n">
-        <v>216.9998285182166</v>
+        <v>217.6270987260597</v>
       </c>
       <c r="M21" t="n">
-        <v>253.2285646600822</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N21" t="n">
-        <v>259.9307712615235</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O21" t="n">
-        <v>237.7858741062053</v>
+        <v>238.4732294635403</v>
       </c>
       <c r="P21" t="n">
-        <v>190.8441275431999</v>
+        <v>191.39579081578</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.5742452114771</v>
+        <v>127.943017499712</v>
       </c>
       <c r="R21" t="n">
-        <v>62.05129931327895</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S21" t="n">
-        <v>18.56366576658209</v>
+        <v>18.61732679739142</v>
       </c>
       <c r="T21" t="n">
-        <v>4.028337388309078</v>
+        <v>4.03998189534893</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06594094497305114</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8402966321156021</v>
       </c>
       <c r="H22" t="n">
-        <v>7.449467175140939</v>
+        <v>7.471000965536904</v>
       </c>
       <c r="I22" t="n">
-        <v>25.1971752713356</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J22" t="n">
-        <v>59.23773642236303</v>
+        <v>59.40897189057306</v>
       </c>
       <c r="K22" t="n">
-        <v>97.34579805552261</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L22" t="n">
-        <v>124.569106525823</v>
+        <v>124.9291920147142</v>
       </c>
       <c r="M22" t="n">
-        <v>131.3406569539418</v>
+        <v>131.7203166142666</v>
       </c>
       <c r="N22" t="n">
-        <v>128.2176696923798</v>
+        <v>128.5883018945631</v>
       </c>
       <c r="O22" t="n">
-        <v>118.4297705921179</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P22" t="n">
-        <v>101.3371281166411</v>
+        <v>101.6300581242361</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.16057479572919</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R22" t="n">
-        <v>37.67389023338144</v>
+        <v>37.78279220403424</v>
       </c>
       <c r="S22" t="n">
-        <v>14.60186970832839</v>
+        <v>14.64407857968735</v>
       </c>
       <c r="T22" t="n">
-        <v>3.580009787644415</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H23" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I23" t="n">
-        <v>72.22029019599243</v>
+        <v>72.22029019599242</v>
       </c>
       <c r="J23" t="n">
         <v>158.9937579929216</v>
@@ -32715,7 +32715,7 @@
         <v>238.2904283514291</v>
       </c>
       <c r="L23" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M23" t="n">
         <v>328.9345964821231</v>
@@ -32724,13 +32724,13 @@
         <v>334.2571021437369</v>
       </c>
       <c r="O23" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P23" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R23" t="n">
         <v>117.6735050651452</v>
@@ -32739,7 +32739,7 @@
         <v>42.68775988175027</v>
       </c>
       <c r="T23" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U23" t="n">
         <v>0.1498637757779492</v>
@@ -32788,7 +32788,7 @@
         <v>34.50909453589676</v>
       </c>
       <c r="J24" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K24" t="n">
         <v>161.8498514048549</v>
@@ -32797,10 +32797,10 @@
         <v>217.6270987260598</v>
       </c>
       <c r="M24" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N24" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O24" t="n">
         <v>238.4732294635403</v>
@@ -32812,7 +32812,7 @@
         <v>127.943017499712</v>
       </c>
       <c r="R24" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S24" t="n">
         <v>18.61732679739142</v>
@@ -32861,16 +32861,16 @@
         <v>0.8402966321156022</v>
       </c>
       <c r="H25" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536905</v>
       </c>
       <c r="I25" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J25" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057307</v>
       </c>
       <c r="K25" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L25" t="n">
         <v>124.9291920147142</v>
@@ -32882,13 +32882,13 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O25" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P25" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R25" t="n">
         <v>37.78279220403425</v>
@@ -32897,10 +32897,10 @@
         <v>14.64407857968735</v>
       </c>
       <c r="T25" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H26" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I26" t="n">
-        <v>72.22029019599243</v>
+        <v>72.22029019599242</v>
       </c>
       <c r="J26" t="n">
         <v>158.9937579929216</v>
@@ -32952,7 +32952,7 @@
         <v>238.2904283514291</v>
       </c>
       <c r="L26" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M26" t="n">
         <v>328.9345964821231</v>
@@ -32961,13 +32961,13 @@
         <v>334.2571021437369</v>
       </c>
       <c r="O26" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P26" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R26" t="n">
         <v>117.6735050651452</v>
@@ -32976,7 +32976,7 @@
         <v>42.68775988175027</v>
       </c>
       <c r="T26" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U26" t="n">
         <v>0.1498637757779492</v>
@@ -33025,7 +33025,7 @@
         <v>34.50909453589676</v>
       </c>
       <c r="J27" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K27" t="n">
         <v>161.8498514048549</v>
@@ -33034,10 +33034,10 @@
         <v>217.6270987260598</v>
       </c>
       <c r="M27" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N27" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O27" t="n">
         <v>238.4732294635403</v>
@@ -33049,7 +33049,7 @@
         <v>127.943017499712</v>
       </c>
       <c r="R27" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S27" t="n">
         <v>18.61732679739142</v>
@@ -33098,16 +33098,16 @@
         <v>0.8402966321156022</v>
       </c>
       <c r="H28" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536905</v>
       </c>
       <c r="I28" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J28" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057307</v>
       </c>
       <c r="K28" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L28" t="n">
         <v>124.9291920147142</v>
@@ -33119,13 +33119,13 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O28" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P28" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R28" t="n">
         <v>37.78279220403425</v>
@@ -33134,10 +33134,10 @@
         <v>14.64407857968735</v>
       </c>
       <c r="T28" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H29" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I29" t="n">
-        <v>72.22029019599243</v>
+        <v>72.22029019599242</v>
       </c>
       <c r="J29" t="n">
         <v>158.9937579929216</v>
@@ -33189,7 +33189,7 @@
         <v>238.2904283514291</v>
       </c>
       <c r="L29" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M29" t="n">
         <v>328.9345964821231</v>
@@ -33198,13 +33198,13 @@
         <v>334.2571021437369</v>
       </c>
       <c r="O29" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P29" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R29" t="n">
         <v>117.6735050651452</v>
@@ -33213,7 +33213,7 @@
         <v>42.68775988175027</v>
       </c>
       <c r="T29" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U29" t="n">
         <v>0.1498637757779492</v>
@@ -33262,7 +33262,7 @@
         <v>34.50909453589676</v>
       </c>
       <c r="J30" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K30" t="n">
         <v>161.8498514048549</v>
@@ -33271,10 +33271,10 @@
         <v>217.6270987260598</v>
       </c>
       <c r="M30" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N30" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O30" t="n">
         <v>238.4732294635403</v>
@@ -33286,7 +33286,7 @@
         <v>127.943017499712</v>
       </c>
       <c r="R30" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S30" t="n">
         <v>18.61732679739142</v>
@@ -33335,16 +33335,16 @@
         <v>0.8402966321156022</v>
       </c>
       <c r="H31" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536905</v>
       </c>
       <c r="I31" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J31" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057307</v>
       </c>
       <c r="K31" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L31" t="n">
         <v>124.9291920147142</v>
@@ -33356,13 +33356,13 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O31" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P31" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R31" t="n">
         <v>37.78279220403425</v>
@@ -33371,10 +33371,10 @@
         <v>14.64407857968735</v>
       </c>
       <c r="T31" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H32" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I32" t="n">
-        <v>72.22029019599243</v>
+        <v>72.22029019599242</v>
       </c>
       <c r="J32" t="n">
         <v>158.9937579929216</v>
@@ -33426,7 +33426,7 @@
         <v>238.2904283514291</v>
       </c>
       <c r="L32" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M32" t="n">
         <v>328.9345964821231</v>
@@ -33435,13 +33435,13 @@
         <v>334.2571021437369</v>
       </c>
       <c r="O32" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P32" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R32" t="n">
         <v>117.6735050651452</v>
@@ -33450,7 +33450,7 @@
         <v>42.68775988175027</v>
       </c>
       <c r="T32" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U32" t="n">
         <v>0.1498637757779492</v>
@@ -33499,7 +33499,7 @@
         <v>34.50909453589676</v>
       </c>
       <c r="J33" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K33" t="n">
         <v>161.8498514048549</v>
@@ -33508,10 +33508,10 @@
         <v>217.6270987260598</v>
       </c>
       <c r="M33" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N33" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O33" t="n">
         <v>238.4732294635403</v>
@@ -33523,7 +33523,7 @@
         <v>127.943017499712</v>
       </c>
       <c r="R33" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S33" t="n">
         <v>18.61732679739142</v>
@@ -33572,16 +33572,16 @@
         <v>0.8402966321156022</v>
       </c>
       <c r="H34" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536905</v>
       </c>
       <c r="I34" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J34" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057307</v>
       </c>
       <c r="K34" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L34" t="n">
         <v>124.9291920147142</v>
@@ -33593,13 +33593,13 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O34" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P34" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R34" t="n">
         <v>37.78279220403425</v>
@@ -33608,10 +33608,10 @@
         <v>14.64407857968735</v>
       </c>
       <c r="T34" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H35" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I35" t="n">
-        <v>72.22029019599243</v>
+        <v>72.22029019599242</v>
       </c>
       <c r="J35" t="n">
         <v>158.9937579929216</v>
@@ -33663,7 +33663,7 @@
         <v>238.2904283514291</v>
       </c>
       <c r="L35" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M35" t="n">
         <v>328.9345964821231</v>
@@ -33672,13 +33672,13 @@
         <v>334.2571021437369</v>
       </c>
       <c r="O35" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P35" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R35" t="n">
         <v>117.6735050651452</v>
@@ -33687,7 +33687,7 @@
         <v>42.68775988175027</v>
       </c>
       <c r="T35" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U35" t="n">
         <v>0.1498637757779492</v>
@@ -33736,7 +33736,7 @@
         <v>34.50909453589676</v>
       </c>
       <c r="J36" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K36" t="n">
         <v>161.8498514048549</v>
@@ -33745,10 +33745,10 @@
         <v>217.6270987260598</v>
       </c>
       <c r="M36" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N36" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O36" t="n">
         <v>238.4732294635403</v>
@@ -33760,7 +33760,7 @@
         <v>127.943017499712</v>
       </c>
       <c r="R36" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S36" t="n">
         <v>18.61732679739142</v>
@@ -33809,16 +33809,16 @@
         <v>0.8402966321156022</v>
       </c>
       <c r="H37" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536905</v>
       </c>
       <c r="I37" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J37" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057307</v>
       </c>
       <c r="K37" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L37" t="n">
         <v>124.9291920147142</v>
@@ -33830,13 +33830,13 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O37" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P37" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R37" t="n">
         <v>37.78279220403425</v>
@@ -33845,10 +33845,10 @@
         <v>14.64407857968735</v>
       </c>
       <c r="T37" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H38" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I38" t="n">
-        <v>72.22029019599243</v>
+        <v>72.22029019599242</v>
       </c>
       <c r="J38" t="n">
         <v>158.9937579929216</v>
@@ -33900,7 +33900,7 @@
         <v>238.2904283514291</v>
       </c>
       <c r="L38" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M38" t="n">
         <v>328.9345964821231</v>
@@ -33909,13 +33909,13 @@
         <v>334.2571021437369</v>
       </c>
       <c r="O38" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P38" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R38" t="n">
         <v>117.6735050651452</v>
@@ -33924,7 +33924,7 @@
         <v>42.68775988175027</v>
       </c>
       <c r="T38" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U38" t="n">
         <v>0.1498637757779492</v>
@@ -33973,7 +33973,7 @@
         <v>34.50909453589676</v>
       </c>
       <c r="J39" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K39" t="n">
         <v>161.8498514048549</v>
@@ -33982,10 +33982,10 @@
         <v>217.6270987260598</v>
       </c>
       <c r="M39" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N39" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O39" t="n">
         <v>238.4732294635403</v>
@@ -33997,7 +33997,7 @@
         <v>127.943017499712</v>
       </c>
       <c r="R39" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S39" t="n">
         <v>18.61732679739142</v>
@@ -34046,16 +34046,16 @@
         <v>0.8402966321156022</v>
       </c>
       <c r="H40" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536905</v>
       </c>
       <c r="I40" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J40" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057307</v>
       </c>
       <c r="K40" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L40" t="n">
         <v>124.9291920147142</v>
@@ -34067,13 +34067,13 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O40" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P40" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R40" t="n">
         <v>37.78279220403425</v>
@@ -34082,10 +34082,10 @@
         <v>14.64407857968735</v>
       </c>
       <c r="T40" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H41" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I41" t="n">
-        <v>72.22029019599243</v>
+        <v>72.22029019599242</v>
       </c>
       <c r="J41" t="n">
         <v>158.9937579929216</v>
@@ -34137,7 +34137,7 @@
         <v>238.2904283514291</v>
       </c>
       <c r="L41" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M41" t="n">
         <v>328.9345964821231</v>
@@ -34146,13 +34146,13 @@
         <v>334.2571021437369</v>
       </c>
       <c r="O41" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P41" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R41" t="n">
         <v>117.6735050651452</v>
@@ -34161,7 +34161,7 @@
         <v>42.68775988175027</v>
       </c>
       <c r="T41" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U41" t="n">
         <v>0.1498637757779492</v>
@@ -34210,7 +34210,7 @@
         <v>34.50909453589676</v>
       </c>
       <c r="J42" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K42" t="n">
         <v>161.8498514048549</v>
@@ -34219,10 +34219,10 @@
         <v>217.6270987260598</v>
       </c>
       <c r="M42" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N42" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O42" t="n">
         <v>238.4732294635403</v>
@@ -34234,7 +34234,7 @@
         <v>127.943017499712</v>
       </c>
       <c r="R42" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S42" t="n">
         <v>18.61732679739142</v>
@@ -34283,16 +34283,16 @@
         <v>0.8402966321156022</v>
       </c>
       <c r="H43" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536905</v>
       </c>
       <c r="I43" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J43" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057307</v>
       </c>
       <c r="K43" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L43" t="n">
         <v>124.9291920147142</v>
@@ -34304,13 +34304,13 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O43" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P43" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R43" t="n">
         <v>37.78279220403425</v>
@@ -34319,10 +34319,10 @@
         <v>14.64407857968735</v>
       </c>
       <c r="T43" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H44" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I44" t="n">
-        <v>72.22029019599243</v>
+        <v>72.22029019599242</v>
       </c>
       <c r="J44" t="n">
         <v>158.9937579929216</v>
@@ -34374,7 +34374,7 @@
         <v>238.2904283514291</v>
       </c>
       <c r="L44" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M44" t="n">
         <v>328.9345964821231</v>
@@ -34383,13 +34383,13 @@
         <v>334.2571021437369</v>
       </c>
       <c r="O44" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P44" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R44" t="n">
         <v>117.6735050651452</v>
@@ -34398,7 +34398,7 @@
         <v>42.68775988175027</v>
       </c>
       <c r="T44" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U44" t="n">
         <v>0.1498637757779492</v>
@@ -34447,7 +34447,7 @@
         <v>34.50909453589676</v>
       </c>
       <c r="J45" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K45" t="n">
         <v>161.8498514048549</v>
@@ -34456,10 +34456,10 @@
         <v>217.6270987260598</v>
       </c>
       <c r="M45" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N45" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O45" t="n">
         <v>238.4732294635403</v>
@@ -34471,7 +34471,7 @@
         <v>127.943017499712</v>
       </c>
       <c r="R45" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S45" t="n">
         <v>18.61732679739142</v>
@@ -34520,16 +34520,16 @@
         <v>0.8402966321156022</v>
       </c>
       <c r="H46" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536905</v>
       </c>
       <c r="I46" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J46" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057307</v>
       </c>
       <c r="K46" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L46" t="n">
         <v>124.9291920147142</v>
@@ -34541,13 +34541,13 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O46" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P46" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R46" t="n">
         <v>37.78279220403425</v>
@@ -34556,10 +34556,10 @@
         <v>14.64407857968735</v>
       </c>
       <c r="T46" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6.402750954171552</v>
+        <v>30.44536873543774</v>
       </c>
       <c r="M11" t="n">
-        <v>6.672340468031409</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="N11" t="n">
-        <v>6.672340468031409</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="O11" t="n">
-        <v>6.672340468031409</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="M12" t="n">
-        <v>6.402750954171552</v>
+        <v>30.44536873543781</v>
       </c>
       <c r="N12" t="n">
-        <v>6.672340468031409</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="O12" t="n">
-        <v>6.672340468031409</v>
+        <v>31.72727899798257</v>
       </c>
       <c r="P12" t="n">
-        <v>6.672340468031409</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>6.402750954171552</v>
+        <v>43.08347233561022</v>
       </c>
       <c r="M14" t="n">
-        <v>6.672340468031409</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="N14" t="n">
-        <v>6.672340468031409</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="O14" t="n">
-        <v>6.672340468031409</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>6.672340468031409</v>
+        <v>26.32271978281832</v>
       </c>
       <c r="M15" t="n">
-        <v>6.402750954171552</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="N15" t="n">
-        <v>6.672340468031409</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>16.76075255279198</v>
       </c>
       <c r="P15" t="n">
-        <v>6.672340468031409</v>
+        <v>44.89751327605703</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.6868284666477678</v>
       </c>
       <c r="L17" t="n">
-        <v>51.46780692470583</v>
+        <v>59.40388134049493</v>
       </c>
       <c r="M17" t="n">
-        <v>61.59674485649785</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="N17" t="n">
-        <v>61.59674485649785</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="O17" t="n">
-        <v>61.59674485649785</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="P17" t="n">
-        <v>7.640180563852709</v>
+        <v>14.87188641486421</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>29.01770852812527</v>
       </c>
       <c r="L18" t="n">
-        <v>59.10798748855856</v>
+        <v>57.57207725236162</v>
       </c>
       <c r="M18" t="n">
-        <v>61.59674485649785</v>
+        <v>46.08953479525894</v>
       </c>
       <c r="N18" t="n">
-        <v>61.59674485649785</v>
+        <v>68.59488580858883</v>
       </c>
       <c r="O18" t="n">
-        <v>61.59674485649785</v>
+        <v>29.92622196354023</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.6868284666478246</v>
       </c>
       <c r="L20" t="n">
-        <v>58.55180989409087</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M20" t="n">
-        <v>75.70608231735557</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="N20" t="n">
-        <v>75.70608231735557</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="O20" t="n">
-        <v>75.70608231735557</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="P20" t="n">
-        <v>14.09544081448263</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>28.55120600833615</v>
+        <v>29.0177085281253</v>
       </c>
       <c r="L21" t="n">
-        <v>14.36404809015056</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="M21" t="n">
-        <v>45.35754004913034</v>
+        <v>55.46891794822686</v>
       </c>
       <c r="N21" t="n">
-        <v>67.84351733964857</v>
+        <v>68.59488580858888</v>
       </c>
       <c r="O21" t="n">
-        <v>67.94310385601905</v>
+        <v>78.11891606293383</v>
       </c>
       <c r="P21" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478814</v>
       </c>
       <c r="L23" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M23" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="N23" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="O23" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P23" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>29.01770852812533</v>
       </c>
       <c r="L24" t="n">
-        <v>38.39709168109333</v>
+        <v>57.57207725236164</v>
       </c>
       <c r="M24" t="n">
-        <v>46.08953479525906</v>
+        <v>46.08953479525903</v>
       </c>
       <c r="N24" t="n">
-        <v>68.594885808589</v>
+        <v>68.59488580858894</v>
       </c>
       <c r="O24" t="n">
-        <v>78.11891606293401</v>
+        <v>29.92622196354031</v>
       </c>
       <c r="P24" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478814</v>
       </c>
       <c r="L26" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M26" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="N26" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="O26" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P26" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>29.01770852812535</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>45.94488769388202</v>
+        <v>38.39709168109331</v>
       </c>
       <c r="M27" t="n">
-        <v>78.11891606293401</v>
+        <v>46.08953479525903</v>
       </c>
       <c r="N27" t="n">
-        <v>78.11891606293401</v>
+        <v>68.59488580858894</v>
       </c>
       <c r="O27" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478814</v>
       </c>
       <c r="L29" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M29" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="N29" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="O29" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P29" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>29.01770852812535</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>57.57207725236164</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="M30" t="n">
-        <v>46.08953479525906</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="N30" t="n">
-        <v>68.594885808589</v>
+        <v>74.96259622200733</v>
       </c>
       <c r="O30" t="n">
-        <v>29.92622196354034</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P30" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478814</v>
       </c>
       <c r="L32" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M32" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="N32" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="O32" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P32" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>29.01770852812535</v>
+        <v>29.01770852812533</v>
       </c>
       <c r="L33" t="n">
-        <v>57.57207725236164</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="M33" t="n">
-        <v>46.08953479525906</v>
+        <v>46.08953479525903</v>
       </c>
       <c r="N33" t="n">
-        <v>68.594885808589</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="O33" t="n">
-        <v>29.92622196354034</v>
+        <v>77.97426896155693</v>
       </c>
       <c r="P33" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478814</v>
       </c>
       <c r="L35" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M35" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="N35" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="O35" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P35" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>29.01770852812535</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>14.99131829799379</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="M36" t="n">
-        <v>46.08953479525906</v>
+        <v>74.96259622200742</v>
       </c>
       <c r="N36" t="n">
-        <v>68.594885808589</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="O36" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293402</v>
       </c>
       <c r="P36" t="n">
-        <v>72.50698091790819</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478814</v>
       </c>
       <c r="L38" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M38" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="N38" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="O38" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P38" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>29.01770852812535</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.54269598468668</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="M39" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="N39" t="n">
-        <v>68.594885808589</v>
+        <v>74.96259622200742</v>
       </c>
       <c r="O39" t="n">
-        <v>29.92622196354034</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="P39" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478814</v>
       </c>
       <c r="L41" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M41" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="N41" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="O41" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P41" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>14.99131829799379</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="M42" t="n">
-        <v>78.11891606293402</v>
+        <v>46.08953479525903</v>
       </c>
       <c r="N42" t="n">
-        <v>68.594885808589</v>
+        <v>68.59488580858894</v>
       </c>
       <c r="O42" t="n">
-        <v>69.49530817835864</v>
+        <v>38.39709168109334</v>
       </c>
       <c r="P42" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478814</v>
       </c>
       <c r="L44" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M44" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="N44" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="O44" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P44" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>29.01770852812535</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>14.99131829799379</v>
+        <v>14.99131829799376</v>
       </c>
       <c r="M45" t="n">
-        <v>46.08953479525906</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="N45" t="n">
-        <v>68.594885808589</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="O45" t="n">
-        <v>72.50698091790825</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="P45" t="n">
-        <v>78.11891606293402</v>
+        <v>59.97127792401365</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
